--- a/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Mexico\Models\eps-1.4.1-mexico-wipB\InputData\trans\BAADTbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olea/FerOlea/0.Chamba 2018/2018.WRI-EPS2/0.Documentos trabajo modelo/eps-1.4.1-mexico_TALLER/Updates/Transport/BAADTbVT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39130127-2D8D-F146-A350-516ACB75747D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15120" windowHeight="6945" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23360" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Christopher-Mexico" sheetId="23" r:id="rId2"/>
     <sheet name="Rail, Ships &amp; Aircraft" sheetId="21" r:id="rId3"/>
-    <sheet name="Scaling Factors" sheetId="22" r:id="rId4"/>
-    <sheet name="BAADTbVT-passengers" sheetId="16" r:id="rId5"/>
-    <sheet name="BAADTbVT-freight" sheetId="17" r:id="rId6"/>
+    <sheet name="MX Rail Pssgr" sheetId="25" r:id="rId4"/>
+    <sheet name="Scaling Factors" sheetId="22" r:id="rId5"/>
+    <sheet name="BAADTbVT-passengers" sheetId="16" r:id="rId6"/>
+    <sheet name="BAADTbVT-freight" sheetId="17" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -30,12 +32,12 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="249">
   <si>
     <t>Source:</t>
   </si>
@@ -319,9 +321,6 @@
     <t>BAU CO2 Emissions</t>
   </si>
   <si>
-    <t>For rail, ships and aircraft we scaled with USA values and Mexico GDP and Population.</t>
-  </si>
-  <si>
     <t>BAADTbVT BAU Average Annual Dist Traveled by Vehicle Type</t>
   </si>
   <si>
@@ -555,11 +554,382 @@
   <si>
     <t>millas</t>
   </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Nota:</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Dato no acumulable.</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Fecha de actualización: Miércoles, 20 de Junio de 2018</t>
+  </si>
+  <si>
+    <t>Mexico Subway</t>
+  </si>
+  <si>
+    <t>Principales características de los sistemas de transportes eléctricos en la Ciudad de Guadalajara</t>
+  </si>
+  <si>
+    <t>Tren eléctrico</t>
+  </si>
+  <si>
+    <t>El dato anual se refiere al promedio mensual.</t>
+  </si>
+  <si>
+    <t>Principales características del sistema de transporte colectivo metro de la Ciudad de México</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Longitud en servicio (km) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trenes en servicio </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>Kilómetros recorridos</t>
+  </si>
+  <si>
+    <t>Pasajeros transportados</t>
+  </si>
+  <si>
+    <t>Energía eléctrica consumida</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Miles de kilómetros) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Miles de pasajeros) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Miles de KWH)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+  </si>
+  <si>
+    <t>A partir del 29 de noviembre de 2015, se regularizó el servicio de la línea 12.</t>
+  </si>
+  <si>
+    <t>Cifra relativa al número de trenes en operación en día laborable y horario de máxima demanda.</t>
+  </si>
+  <si>
+    <t>Promedio diario de kilómetros recorridos</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Promedio diario de pasajeros transportados. Incluye a los pasajeros con boleto pagado y usuarios de acceso gratuito (personas de la tercera edad, Discapacitados, menores de 5 años y derechohabientes del Sistema de Transporte Colectivo, principalmente).</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Cifras estimadas para tracción, alumbrado y fuerza, por parte de la Coodinación de Control y Operaciones Eléctricas del SCT.</t>
+  </si>
+  <si>
+    <t>CDMX Metro</t>
+  </si>
+  <si>
+    <t>Principales características de los sistemas de transportes eléctricos en la Ciudad de México</t>
+  </si>
+  <si>
+    <t>Tren ligero</t>
+  </si>
+  <si>
+    <r>
+      <t>Longitud en servicio (km) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unidades en operación </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>Ingresos por pasaje</t>
+  </si>
+  <si>
+    <t>(Miles de Kilómetros)</t>
+  </si>
+  <si>
+    <t>(Miles de pasajeros)</t>
+  </si>
+  <si>
+    <t>(Miles de pesos)</t>
+  </si>
+  <si>
+    <t>La información de pasajeros transportados e ingresos por pasaje se encuentra en proceso de verificación de ventas de tarjetas, total de pasajeros y recargas.</t>
+  </si>
+  <si>
+    <t>Del 5 de abril y hasta el 30 de junio los sistemas de transporte de pasajeros de Trolebús, Tren Ligero y la Red de Transporte de Pasajeros (RTP), realizarán el servicio de transporte de pasajeros de manera gratiuta, lo anterior como parte de las medidas que se han tomado para reducir los niveles de contaminación en la Ciudad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDMX Tren ligero </t>
+  </si>
+  <si>
+    <t>(Miles de kilómetros)</t>
+  </si>
+  <si>
+    <t>Guadalajara Tren eléctrico</t>
+  </si>
+  <si>
+    <t>Principales características del sistema de transporte colectivo metrorrey</t>
+  </si>
+  <si>
+    <t>Longitud en servicio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trenes en servicio </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>Energia eléctrica consumida</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(km) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Miles de KWH)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>Datos estimados por la fuente informante.</t>
+  </si>
+  <si>
+    <t>Monterrey Sistema de transporte colectivo (metro)</t>
+  </si>
+  <si>
+    <t>INEGI</t>
+  </si>
+  <si>
+    <t>Transporte Urbano de Pasajeros</t>
+  </si>
+  <si>
+    <t>http://www.beta.inegi.org.mx/proyectos/registros/economicas/transporteurbano/</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Anual distance (km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
+    <t>Number of trains (units)</t>
+  </si>
+  <si>
+    <t>CDMX Tren ligero</t>
+  </si>
+  <si>
+    <t>GDL Tren eléctrico</t>
+  </si>
+  <si>
+    <t>MTY Metro</t>
+  </si>
+  <si>
+    <t>Annual distanca by unit (km)</t>
+  </si>
+  <si>
+    <t>Avg Annual Distance  (km)</t>
+  </si>
+  <si>
+    <t>Avg Annual Distance  (miles)</t>
+  </si>
+  <si>
+    <t>http://www.metro.cdmx.gob.mx/operacion/cifras-de-operación</t>
+  </si>
+  <si>
+    <t>For ships and aircraft we scaled with USA values and Mexico GDP and Population.</t>
+  </si>
+  <si>
+    <t>Passenger Rail was input with data from Mexico City's, Guadalajara and Monterrey metro systems.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -571,7 +941,7 @@
     <numFmt numFmtId="169" formatCode="0.000000"/>
     <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="81">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,8 +1333,163 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="72">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,8 +1705,184 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1494,8 +2195,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="157">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1754,8 +2532,48 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="43" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="43" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="44" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1914,6 +2732,69 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="153" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="70" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="80" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="153" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="153" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="73" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="153" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="196" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1938,171 +2819,235 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="157">
-    <cellStyle name="20% - Accent1 2" xfId="3"/>
-    <cellStyle name="20% - Accent2 2" xfId="4"/>
-    <cellStyle name="20% - Accent3 2" xfId="5"/>
-    <cellStyle name="20% - Accent4 2" xfId="6"/>
-    <cellStyle name="20% - Accent5 2" xfId="7"/>
-    <cellStyle name="20% - Accent6 2" xfId="8"/>
-    <cellStyle name="40% - Accent1 2" xfId="9"/>
-    <cellStyle name="40% - Accent2 2" xfId="10"/>
-    <cellStyle name="40% - Accent3 2" xfId="11"/>
-    <cellStyle name="40% - Accent4 2" xfId="12"/>
-    <cellStyle name="40% - Accent5 2" xfId="13"/>
-    <cellStyle name="40% - Accent6 2" xfId="14"/>
-    <cellStyle name="60% - Accent1 2" xfId="15"/>
-    <cellStyle name="60% - Accent2 2" xfId="16"/>
-    <cellStyle name="60% - Accent3 2" xfId="17"/>
-    <cellStyle name="60% - Accent4 2" xfId="18"/>
-    <cellStyle name="60% - Accent5 2" xfId="19"/>
-    <cellStyle name="60% - Accent6 2" xfId="20"/>
-    <cellStyle name="Accent1 2" xfId="21"/>
-    <cellStyle name="Accent2 2" xfId="22"/>
-    <cellStyle name="Accent3 2" xfId="23"/>
-    <cellStyle name="Accent4 2" xfId="24"/>
-    <cellStyle name="Accent5 2" xfId="25"/>
-    <cellStyle name="Accent6 2" xfId="26"/>
-    <cellStyle name="Bad 2" xfId="27"/>
-    <cellStyle name="Body: normal cell" xfId="28"/>
-    <cellStyle name="Body: normal cell 2" xfId="29"/>
-    <cellStyle name="Calculation 2" xfId="30"/>
-    <cellStyle name="Check Cell 2" xfId="31"/>
-    <cellStyle name="Column heading" xfId="32"/>
+  <cellStyles count="197">
+    <cellStyle name="20% - Accent1" xfId="173" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2" xfId="177" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3" xfId="181" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4" xfId="185" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5" xfId="189" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6" xfId="193" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1" xfId="174" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - Accent2" xfId="178" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - Accent3" xfId="182" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - Accent4" xfId="186" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - Accent5" xfId="190" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - Accent6" xfId="194" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1" xfId="175" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="60% - Accent2" xfId="179" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - Accent3" xfId="183" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="60% - Accent4" xfId="187" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="60% - Accent5" xfId="191" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="60% - Accent6" xfId="195" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Accent1" xfId="172" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Accent2" xfId="176" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Accent3" xfId="180" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Accent4" xfId="184" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Accent5" xfId="188" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Accent6" xfId="192" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Bad" xfId="163" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Bad 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Body: normal cell" xfId="28" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Calculation" xfId="165" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Calculation 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Check Cell" xfId="167" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Check Cell 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Column heading" xfId="32" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="Comma" xfId="153" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="33"/>
-    <cellStyle name="Comma 2 2" xfId="34"/>
-    <cellStyle name="Comma 3" xfId="35"/>
-    <cellStyle name="Comma 4" xfId="36"/>
-    <cellStyle name="Comma 5" xfId="37"/>
-    <cellStyle name="Comma 6" xfId="38"/>
-    <cellStyle name="Comma 7" xfId="39"/>
-    <cellStyle name="Comma 8" xfId="40"/>
-    <cellStyle name="Corner heading" xfId="41"/>
-    <cellStyle name="Currency 2" xfId="42"/>
-    <cellStyle name="Currency 3" xfId="43"/>
-    <cellStyle name="Currency 3 2" xfId="44"/>
-    <cellStyle name="Data" xfId="45"/>
-    <cellStyle name="Data 2" xfId="46"/>
-    <cellStyle name="Data no deci" xfId="47"/>
-    <cellStyle name="Data Superscript" xfId="48"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="49"/>
-    <cellStyle name="Explanatory Text 2" xfId="50"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="51"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="52"/>
-    <cellStyle name="Footnotes: top row" xfId="53"/>
-    <cellStyle name="Footnotes: top row 2" xfId="54"/>
-    <cellStyle name="Good 2" xfId="55"/>
-    <cellStyle name="Header: bottom row" xfId="56"/>
-    <cellStyle name="Header: bottom row 2" xfId="57"/>
-    <cellStyle name="Heading 1 2" xfId="58"/>
-    <cellStyle name="Heading 2 2" xfId="59"/>
-    <cellStyle name="Heading 3 2" xfId="60"/>
-    <cellStyle name="Heading 4 2" xfId="61"/>
-    <cellStyle name="Hed Side" xfId="62"/>
-    <cellStyle name="Hed Side 2" xfId="63"/>
-    <cellStyle name="Hed Side bold" xfId="64"/>
-    <cellStyle name="Hed Side Indent" xfId="65"/>
-    <cellStyle name="Hed Side Regular" xfId="66"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="67"/>
-    <cellStyle name="Hed Top" xfId="68"/>
-    <cellStyle name="Hed Top - SECTION" xfId="69"/>
-    <cellStyle name="Hed Top_3-new4" xfId="70"/>
-    <cellStyle name="Hyperlink 2" xfId="71"/>
-    <cellStyle name="Input" xfId="156" builtinId="20"/>
-    <cellStyle name="Input 2" xfId="72"/>
-    <cellStyle name="Linked Cell 2" xfId="73"/>
-    <cellStyle name="Neutral" xfId="155" builtinId="28"/>
-    <cellStyle name="Neutral 2" xfId="74"/>
+    <cellStyle name="Comma 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Comma 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Comma 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Comma 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Comma 5" xfId="37" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Comma 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Comma 7" xfId="39" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Comma 8" xfId="40" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Corner heading" xfId="41" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Currency 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Currency 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Currency 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Data" xfId="45" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Data 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Data no deci" xfId="47" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Data Superscript" xfId="48" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="49" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Explanatory Text" xfId="170" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="51" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="53" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Good" xfId="162" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Good 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Header: bottom row" xfId="56" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Heading 1" xfId="158" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Heading 2" xfId="159" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Heading 3" xfId="160" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Heading 4" xfId="161" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Heading 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Hed Side" xfId="62" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Hed Side 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Hed Side bold" xfId="64" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="65" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="69" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="70" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Input" xfId="156" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Input 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Linked Cell" xfId="166" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Linked Cell 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Neutral" xfId="155" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="75"/>
-    <cellStyle name="Normal 11" xfId="76"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="77"/>
-    <cellStyle name="Normal 2 3" xfId="78"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 3 2" xfId="79"/>
-    <cellStyle name="Normal 3 2 2" xfId="80"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 3" xfId="82"/>
-    <cellStyle name="Normal 3 3" xfId="83"/>
-    <cellStyle name="Normal 3 3 2" xfId="84"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="85"/>
-    <cellStyle name="Normal 3 3 3" xfId="86"/>
-    <cellStyle name="Normal 3 4" xfId="87"/>
-    <cellStyle name="Normal 3 4 2" xfId="88"/>
-    <cellStyle name="Normal 3 5" xfId="89"/>
-    <cellStyle name="Normal 3 6" xfId="90"/>
-    <cellStyle name="Normal 3 7" xfId="91"/>
-    <cellStyle name="Normal 4" xfId="92"/>
-    <cellStyle name="Normal 4 2" xfId="93"/>
-    <cellStyle name="Normal 4 2 2" xfId="94"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 3" xfId="96"/>
-    <cellStyle name="Normal 4 3" xfId="97"/>
-    <cellStyle name="Normal 4 3 2" xfId="98"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="99"/>
-    <cellStyle name="Normal 4 3 3" xfId="100"/>
-    <cellStyle name="Normal 4 4" xfId="101"/>
-    <cellStyle name="Normal 4 4 2" xfId="102"/>
-    <cellStyle name="Normal 4 5" xfId="103"/>
-    <cellStyle name="Normal 4 6" xfId="104"/>
-    <cellStyle name="Normal 4 7" xfId="105"/>
-    <cellStyle name="Normal 5" xfId="106"/>
-    <cellStyle name="Normal 5 2" xfId="107"/>
-    <cellStyle name="Normal 5 3" xfId="108"/>
-    <cellStyle name="Normal 6" xfId="109"/>
-    <cellStyle name="Normal 6 2" xfId="110"/>
-    <cellStyle name="Normal 7" xfId="111"/>
-    <cellStyle name="Normal 7 2" xfId="112"/>
-    <cellStyle name="Normal 8" xfId="113"/>
-    <cellStyle name="Normal 9" xfId="114"/>
-    <cellStyle name="Note 2" xfId="115"/>
-    <cellStyle name="Note 2 2" xfId="116"/>
-    <cellStyle name="Output 2" xfId="117"/>
-    <cellStyle name="Parent row" xfId="118"/>
-    <cellStyle name="Parent row 2" xfId="119"/>
+    <cellStyle name="Normal 10" xfId="75" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 11" xfId="76" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 2 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="78" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 3 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 3 4" xfId="87" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="88" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 3 5" xfId="89" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 3 6" xfId="90" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 3 7" xfId="91" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Normal 5" xfId="106" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Normal 5 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Normal 5 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Normal 6 2" xfId="110" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Normal 7" xfId="111" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Normal 7 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Note" xfId="169" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Output" xfId="164" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Parent row" xfId="118" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Parent row 2" xfId="119" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
     <cellStyle name="Percent" xfId="154" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="120"/>
-    <cellStyle name="Percent 2 2" xfId="121"/>
-    <cellStyle name="Percent 3" xfId="122"/>
-    <cellStyle name="Percent 3 2" xfId="123"/>
-    <cellStyle name="Percent 4" xfId="124"/>
-    <cellStyle name="Reference" xfId="125"/>
-    <cellStyle name="Row heading" xfId="126"/>
-    <cellStyle name="Source Hed" xfId="127"/>
-    <cellStyle name="Source Letter" xfId="128"/>
-    <cellStyle name="Source Superscript" xfId="129"/>
-    <cellStyle name="Source Superscript 2" xfId="130"/>
-    <cellStyle name="Source Text" xfId="131"/>
-    <cellStyle name="Source Text 2" xfId="132"/>
-    <cellStyle name="State" xfId="133"/>
-    <cellStyle name="Superscript" xfId="134"/>
-    <cellStyle name="Table Data" xfId="135"/>
-    <cellStyle name="Table Head Top" xfId="136"/>
-    <cellStyle name="Table Hed Side" xfId="137"/>
-    <cellStyle name="Table title" xfId="138"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Percent 2" xfId="120" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Percent 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Percent 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Percent 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Percent 4" xfId="124" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Reference" xfId="125" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Row heading" xfId="126" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Source Hed" xfId="127" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Source Letter" xfId="128" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Source Superscript" xfId="129" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Source Text" xfId="131" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Source Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="State" xfId="133" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Superscript" xfId="134" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Table Data" xfId="135" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Table Head Top" xfId="136" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Table Hed Side" xfId="137" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Table title" xfId="138" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Title" xfId="157" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Total" xfId="171" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Warning Text" xfId="168" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2274,6 +3219,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2309,6 +3271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2484,19 +3463,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2572,49 +3553,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="19" spans="2:2" s="83" customFormat="1"/>
+    <row r="20" spans="2:2" s="83" customFormat="1">
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>38</v>
+    <row r="21" spans="2:2" s="83" customFormat="1">
+      <c r="B21" s="83" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" s="83" customFormat="1">
       <c r="B22" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>11</v>
+    <row r="23" spans="2:2" s="83" customFormat="1">
+      <c r="B23" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>40</v>
+    <row r="24" spans="2:2" s="83" customFormat="1">
+      <c r="B24" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
+      <c r="B25" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" s="83" customFormat="1">
+      <c r="B26" s="104"/>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -2624,60 +3609,95 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="B34" s="17" t="s">
-        <v>46</v>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="B35" s="17" t="s">
-        <v>47</v>
+      <c r="B35" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="B36" s="17" t="s">
-        <v>48</v>
+      <c r="B36" s="2">
+        <v>2016</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="B37" s="17" t="s">
-        <v>49</v>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="5"/>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" display="http://cta.ornl.gov/data/index.shtml"/>
+    <hyperlink ref="B12" r:id="rId1" display="http://cta.ornl.gov/data/index.shtml" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -2685,984 +3705,984 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AFG93"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="92" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.42578125" customWidth="1"/>
-    <col min="94" max="94" width="7.85546875" customWidth="1"/>
-    <col min="95" max="95" width="23.85546875" customWidth="1"/>
-    <col min="96" max="121" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="123" max="156" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="92" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.5" customWidth="1"/>
+    <col min="94" max="94" width="7.83203125" customWidth="1"/>
+    <col min="95" max="95" width="23.83203125" customWidth="1"/>
+    <col min="96" max="121" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="123" max="156" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="4" customWidth="1"/>
-    <col min="159" max="159" width="17.42578125" customWidth="1"/>
-    <col min="160" max="160" width="15.140625" customWidth="1"/>
-    <col min="161" max="161" width="17.140625" customWidth="1"/>
-    <col min="162" max="242" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="13.42578125" customWidth="1"/>
-    <col min="244" max="244" width="7.85546875" customWidth="1"/>
-    <col min="245" max="245" width="23.85546875" customWidth="1"/>
-    <col min="246" max="306" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="13.42578125" customWidth="1"/>
-    <col min="308" max="308" width="7.85546875" customWidth="1"/>
-    <col min="309" max="309" width="23.85546875" customWidth="1"/>
-    <col min="310" max="370" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="13.42578125" customWidth="1"/>
-    <col min="372" max="372" width="7.85546875" customWidth="1"/>
-    <col min="373" max="373" width="23.85546875" customWidth="1"/>
-    <col min="374" max="434" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="13.42578125" customWidth="1"/>
-    <col min="436" max="436" width="7.85546875" customWidth="1"/>
-    <col min="437" max="437" width="23.85546875" customWidth="1"/>
-    <col min="438" max="498" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="17.5" customWidth="1"/>
+    <col min="160" max="160" width="15.1640625" customWidth="1"/>
+    <col min="161" max="161" width="17.1640625" customWidth="1"/>
+    <col min="162" max="242" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="13.5" customWidth="1"/>
+    <col min="244" max="244" width="7.83203125" customWidth="1"/>
+    <col min="245" max="245" width="23.83203125" customWidth="1"/>
+    <col min="246" max="306" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="13.5" customWidth="1"/>
+    <col min="308" max="308" width="7.83203125" customWidth="1"/>
+    <col min="309" max="309" width="23.83203125" customWidth="1"/>
+    <col min="310" max="370" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="13.5" customWidth="1"/>
+    <col min="372" max="372" width="7.83203125" customWidth="1"/>
+    <col min="373" max="373" width="23.83203125" customWidth="1"/>
+    <col min="374" max="434" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="13.5" customWidth="1"/>
+    <col min="436" max="436" width="7.83203125" customWidth="1"/>
+    <col min="437" max="437" width="23.83203125" customWidth="1"/>
+    <col min="438" max="498" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="499" max="499" width="4" customWidth="1"/>
-    <col min="500" max="500" width="17.42578125" customWidth="1"/>
-    <col min="501" max="501" width="15.140625" customWidth="1"/>
-    <col min="502" max="502" width="17.140625" customWidth="1"/>
-    <col min="503" max="583" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="584" max="584" width="13.42578125" customWidth="1"/>
-    <col min="585" max="585" width="7.85546875" customWidth="1"/>
-    <col min="586" max="586" width="23.85546875" customWidth="1"/>
-    <col min="587" max="647" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="648" max="648" width="13.42578125" customWidth="1"/>
-    <col min="649" max="649" width="7.85546875" customWidth="1"/>
-    <col min="650" max="650" width="23.85546875" customWidth="1"/>
-    <col min="651" max="711" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="712" max="712" width="13.42578125" customWidth="1"/>
-    <col min="713" max="713" width="7.85546875" customWidth="1"/>
-    <col min="714" max="714" width="23.85546875" customWidth="1"/>
-    <col min="715" max="775" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="13.42578125" customWidth="1"/>
-    <col min="777" max="777" width="7.85546875" customWidth="1"/>
-    <col min="778" max="778" width="23.85546875" customWidth="1"/>
-    <col min="779" max="839" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="17.5" customWidth="1"/>
+    <col min="501" max="501" width="15.1640625" customWidth="1"/>
+    <col min="502" max="502" width="17.1640625" customWidth="1"/>
+    <col min="503" max="583" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="13.5" customWidth="1"/>
+    <col min="585" max="585" width="7.83203125" customWidth="1"/>
+    <col min="586" max="586" width="23.83203125" customWidth="1"/>
+    <col min="587" max="647" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="648" max="648" width="13.5" customWidth="1"/>
+    <col min="649" max="649" width="7.83203125" customWidth="1"/>
+    <col min="650" max="650" width="23.83203125" customWidth="1"/>
+    <col min="651" max="711" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="712" max="712" width="13.5" customWidth="1"/>
+    <col min="713" max="713" width="7.83203125" customWidth="1"/>
+    <col min="714" max="714" width="23.83203125" customWidth="1"/>
+    <col min="715" max="775" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="13.5" customWidth="1"/>
+    <col min="777" max="777" width="7.83203125" customWidth="1"/>
+    <col min="778" max="778" width="23.83203125" customWidth="1"/>
+    <col min="779" max="839" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:839">
       <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:839">
       <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
         <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:839">
       <c r="E3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:839" ht="29">
+      <c r="C4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:839" ht="28.5">
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="H4" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="E4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="H4" s="89" t="s">
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="106"/>
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="106"/>
+      <c r="BG4" s="106"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="106"/>
+      <c r="BN4" s="106"/>
+      <c r="BO4" s="106"/>
+      <c r="BP4" s="106"/>
+      <c r="BQ4" s="106"/>
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="106"/>
+      <c r="BT4" s="106"/>
+      <c r="BU4" s="106"/>
+      <c r="BV4" s="106"/>
+      <c r="BW4" s="106"/>
+      <c r="BX4" s="106"/>
+      <c r="BY4" s="106"/>
+      <c r="BZ4" s="106"/>
+      <c r="CA4" s="106"/>
+      <c r="CB4" s="106"/>
+      <c r="CC4" s="106"/>
+      <c r="CD4" s="106"/>
+      <c r="CE4" s="106"/>
+      <c r="CF4" s="106"/>
+      <c r="CG4" s="106"/>
+      <c r="CH4" s="106"/>
+      <c r="CI4" s="106"/>
+      <c r="CJ4" s="106"/>
+      <c r="CK4" s="106"/>
+      <c r="CL4" s="106"/>
+      <c r="CM4" s="106"/>
+      <c r="CN4" s="106"/>
+      <c r="CO4" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="89"/>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="89"/>
-      <c r="BM4" s="89"/>
-      <c r="BN4" s="89"/>
-      <c r="BO4" s="89"/>
-      <c r="BP4" s="89"/>
-      <c r="BQ4" s="89"/>
-      <c r="BR4" s="89"/>
-      <c r="BS4" s="89"/>
-      <c r="BT4" s="89"/>
-      <c r="BU4" s="89"/>
-      <c r="BV4" s="89"/>
-      <c r="BW4" s="89"/>
-      <c r="BX4" s="89"/>
-      <c r="BY4" s="89"/>
-      <c r="BZ4" s="89"/>
-      <c r="CA4" s="89"/>
-      <c r="CB4" s="89"/>
-      <c r="CC4" s="89"/>
-      <c r="CD4" s="89"/>
-      <c r="CE4" s="89"/>
-      <c r="CF4" s="89"/>
-      <c r="CG4" s="89"/>
-      <c r="CH4" s="89"/>
-      <c r="CI4" s="89"/>
-      <c r="CJ4" s="89"/>
-      <c r="CK4" s="89"/>
-      <c r="CL4" s="89"/>
-      <c r="CM4" s="89"/>
-      <c r="CN4" s="89"/>
-      <c r="CO4" s="89" t="s">
+      <c r="CP4" s="106"/>
+      <c r="CQ4" s="106"/>
+      <c r="CR4" s="106"/>
+      <c r="CS4" s="106"/>
+      <c r="CT4" s="106"/>
+      <c r="CU4" s="106"/>
+      <c r="CV4" s="106"/>
+      <c r="CW4" s="106"/>
+      <c r="CX4" s="106"/>
+      <c r="CY4" s="106"/>
+      <c r="CZ4" s="106"/>
+      <c r="DA4" s="106"/>
+      <c r="DB4" s="106"/>
+      <c r="DC4" s="106"/>
+      <c r="DD4" s="106"/>
+      <c r="DE4" s="106"/>
+      <c r="DF4" s="106"/>
+      <c r="DG4" s="106"/>
+      <c r="DH4" s="106"/>
+      <c r="DI4" s="106"/>
+      <c r="DJ4" s="106"/>
+      <c r="DK4" s="106"/>
+      <c r="DL4" s="106"/>
+      <c r="DM4" s="106"/>
+      <c r="DN4" s="106"/>
+      <c r="DO4" s="106"/>
+      <c r="DP4" s="106"/>
+      <c r="DQ4" s="106"/>
+      <c r="DR4" s="106"/>
+      <c r="DS4" s="106"/>
+      <c r="DT4" s="106"/>
+      <c r="DU4" s="106"/>
+      <c r="DV4" s="106"/>
+      <c r="DW4" s="106"/>
+      <c r="DX4" s="106"/>
+      <c r="DY4" s="106"/>
+      <c r="DZ4" s="106"/>
+      <c r="EA4" s="106"/>
+      <c r="EB4" s="106"/>
+      <c r="EC4" s="106"/>
+      <c r="ED4" s="106"/>
+      <c r="EE4" s="106"/>
+      <c r="EF4" s="106"/>
+      <c r="EG4" s="106"/>
+      <c r="EH4" s="106"/>
+      <c r="EI4" s="106"/>
+      <c r="EJ4" s="106"/>
+      <c r="EK4" s="106"/>
+      <c r="EL4" s="106"/>
+      <c r="EM4" s="106"/>
+      <c r="EN4" s="106"/>
+      <c r="EO4" s="106"/>
+      <c r="EP4" s="106"/>
+      <c r="EQ4" s="106"/>
+      <c r="ER4" s="106"/>
+      <c r="ES4" s="106"/>
+      <c r="ET4" s="106"/>
+      <c r="EU4" s="106"/>
+      <c r="EV4" s="106"/>
+      <c r="EW4" s="106"/>
+      <c r="EX4" s="106"/>
+      <c r="EY4" s="106"/>
+      <c r="EZ4" s="106"/>
+      <c r="FA4" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="CP4" s="89"/>
-      <c r="CQ4" s="89"/>
-      <c r="CR4" s="89"/>
-      <c r="CS4" s="89"/>
-      <c r="CT4" s="89"/>
-      <c r="CU4" s="89"/>
-      <c r="CV4" s="89"/>
-      <c r="CW4" s="89"/>
-      <c r="CX4" s="89"/>
-      <c r="CY4" s="89"/>
-      <c r="CZ4" s="89"/>
-      <c r="DA4" s="89"/>
-      <c r="DB4" s="89"/>
-      <c r="DC4" s="89"/>
-      <c r="DD4" s="89"/>
-      <c r="DE4" s="89"/>
-      <c r="DF4" s="89"/>
-      <c r="DG4" s="89"/>
-      <c r="DH4" s="89"/>
-      <c r="DI4" s="89"/>
-      <c r="DJ4" s="89"/>
-      <c r="DK4" s="89"/>
-      <c r="DL4" s="89"/>
-      <c r="DM4" s="89"/>
-      <c r="DN4" s="89"/>
-      <c r="DO4" s="89"/>
-      <c r="DP4" s="89"/>
-      <c r="DQ4" s="89"/>
-      <c r="DR4" s="89"/>
-      <c r="DS4" s="89"/>
-      <c r="DT4" s="89"/>
-      <c r="DU4" s="89"/>
-      <c r="DV4" s="89"/>
-      <c r="DW4" s="89"/>
-      <c r="DX4" s="89"/>
-      <c r="DY4" s="89"/>
-      <c r="DZ4" s="89"/>
-      <c r="EA4" s="89"/>
-      <c r="EB4" s="89"/>
-      <c r="EC4" s="89"/>
-      <c r="ED4" s="89"/>
-      <c r="EE4" s="89"/>
-      <c r="EF4" s="89"/>
-      <c r="EG4" s="89"/>
-      <c r="EH4" s="89"/>
-      <c r="EI4" s="89"/>
-      <c r="EJ4" s="89"/>
-      <c r="EK4" s="89"/>
-      <c r="EL4" s="89"/>
-      <c r="EM4" s="89"/>
-      <c r="EN4" s="89"/>
-      <c r="EO4" s="89"/>
-      <c r="EP4" s="89"/>
-      <c r="EQ4" s="89"/>
-      <c r="ER4" s="89"/>
-      <c r="ES4" s="89"/>
-      <c r="ET4" s="89"/>
-      <c r="EU4" s="89"/>
-      <c r="EV4" s="89"/>
-      <c r="EW4" s="89"/>
-      <c r="EX4" s="89"/>
-      <c r="EY4" s="89"/>
-      <c r="EZ4" s="89"/>
-      <c r="FA4" s="88" t="s">
+      <c r="FB4" s="105"/>
+      <c r="FC4" s="105"/>
+      <c r="FD4" s="105"/>
+      <c r="FE4" s="105"/>
+      <c r="FF4" s="105"/>
+      <c r="FG4" s="105"/>
+      <c r="FH4" s="105"/>
+      <c r="FI4" s="105"/>
+      <c r="FJ4" s="105"/>
+      <c r="FK4" s="105"/>
+      <c r="FL4" s="105"/>
+      <c r="FM4" s="105"/>
+      <c r="FN4" s="105"/>
+      <c r="FO4" s="105"/>
+      <c r="FP4" s="105"/>
+      <c r="FQ4" s="105"/>
+      <c r="FR4" s="105"/>
+      <c r="FS4" s="105"/>
+      <c r="FT4" s="105"/>
+      <c r="FU4" s="105"/>
+      <c r="FV4" s="105"/>
+      <c r="FW4" s="105"/>
+      <c r="FX4" s="105"/>
+      <c r="FY4" s="105"/>
+      <c r="FZ4" s="105"/>
+      <c r="GA4" s="105"/>
+      <c r="GB4" s="105"/>
+      <c r="GC4" s="105"/>
+      <c r="GD4" s="105"/>
+      <c r="GE4" s="105"/>
+      <c r="GF4" s="105"/>
+      <c r="GG4" s="105"/>
+      <c r="GH4" s="105"/>
+      <c r="GI4" s="105"/>
+      <c r="GJ4" s="105"/>
+      <c r="GK4" s="105"/>
+      <c r="GL4" s="105"/>
+      <c r="GM4" s="105"/>
+      <c r="GN4" s="105"/>
+      <c r="GO4" s="105"/>
+      <c r="GP4" s="105"/>
+      <c r="GQ4" s="105"/>
+      <c r="GR4" s="105"/>
+      <c r="GS4" s="105"/>
+      <c r="GT4" s="105"/>
+      <c r="GU4" s="105"/>
+      <c r="GV4" s="105"/>
+      <c r="GW4" s="105"/>
+      <c r="GX4" s="105"/>
+      <c r="GY4" s="105"/>
+      <c r="GZ4" s="105"/>
+      <c r="HA4" s="105"/>
+      <c r="HB4" s="105"/>
+      <c r="HC4" s="105"/>
+      <c r="HD4" s="105"/>
+      <c r="HE4" s="105"/>
+      <c r="HF4" s="105"/>
+      <c r="HG4" s="105"/>
+      <c r="HH4" s="105"/>
+      <c r="HI4" s="105"/>
+      <c r="HJ4" s="105"/>
+      <c r="HK4" s="105"/>
+      <c r="HL4" s="105"/>
+      <c r="HM4" s="105"/>
+      <c r="HN4" s="105"/>
+      <c r="HO4" s="105"/>
+      <c r="HP4" s="105"/>
+      <c r="HQ4" s="105"/>
+      <c r="HR4" s="105"/>
+      <c r="HS4" s="105"/>
+      <c r="HT4" s="105"/>
+      <c r="HU4" s="105"/>
+      <c r="HV4" s="105"/>
+      <c r="HW4" s="105"/>
+      <c r="HX4" s="105"/>
+      <c r="HY4" s="105"/>
+      <c r="HZ4" s="105"/>
+      <c r="IA4" s="105"/>
+      <c r="IB4" s="105"/>
+      <c r="IC4" s="105"/>
+      <c r="ID4" s="105"/>
+      <c r="IE4" s="105"/>
+      <c r="IF4" s="105"/>
+      <c r="IG4" s="105"/>
+      <c r="IH4" s="105"/>
+      <c r="II4" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="FB4" s="88"/>
-      <c r="FC4" s="88"/>
-      <c r="FD4" s="88"/>
-      <c r="FE4" s="88"/>
-      <c r="FF4" s="88"/>
-      <c r="FG4" s="88"/>
-      <c r="FH4" s="88"/>
-      <c r="FI4" s="88"/>
-      <c r="FJ4" s="88"/>
-      <c r="FK4" s="88"/>
-      <c r="FL4" s="88"/>
-      <c r="FM4" s="88"/>
-      <c r="FN4" s="88"/>
-      <c r="FO4" s="88"/>
-      <c r="FP4" s="88"/>
-      <c r="FQ4" s="88"/>
-      <c r="FR4" s="88"/>
-      <c r="FS4" s="88"/>
-      <c r="FT4" s="88"/>
-      <c r="FU4" s="88"/>
-      <c r="FV4" s="88"/>
-      <c r="FW4" s="88"/>
-      <c r="FX4" s="88"/>
-      <c r="FY4" s="88"/>
-      <c r="FZ4" s="88"/>
-      <c r="GA4" s="88"/>
-      <c r="GB4" s="88"/>
-      <c r="GC4" s="88"/>
-      <c r="GD4" s="88"/>
-      <c r="GE4" s="88"/>
-      <c r="GF4" s="88"/>
-      <c r="GG4" s="88"/>
-      <c r="GH4" s="88"/>
-      <c r="GI4" s="88"/>
-      <c r="GJ4" s="88"/>
-      <c r="GK4" s="88"/>
-      <c r="GL4" s="88"/>
-      <c r="GM4" s="88"/>
-      <c r="GN4" s="88"/>
-      <c r="GO4" s="88"/>
-      <c r="GP4" s="88"/>
-      <c r="GQ4" s="88"/>
-      <c r="GR4" s="88"/>
-      <c r="GS4" s="88"/>
-      <c r="GT4" s="88"/>
-      <c r="GU4" s="88"/>
-      <c r="GV4" s="88"/>
-      <c r="GW4" s="88"/>
-      <c r="GX4" s="88"/>
-      <c r="GY4" s="88"/>
-      <c r="GZ4" s="88"/>
-      <c r="HA4" s="88"/>
-      <c r="HB4" s="88"/>
-      <c r="HC4" s="88"/>
-      <c r="HD4" s="88"/>
-      <c r="HE4" s="88"/>
-      <c r="HF4" s="88"/>
-      <c r="HG4" s="88"/>
-      <c r="HH4" s="88"/>
-      <c r="HI4" s="88"/>
-      <c r="HJ4" s="88"/>
-      <c r="HK4" s="88"/>
-      <c r="HL4" s="88"/>
-      <c r="HM4" s="88"/>
-      <c r="HN4" s="88"/>
-      <c r="HO4" s="88"/>
-      <c r="HP4" s="88"/>
-      <c r="HQ4" s="88"/>
-      <c r="HR4" s="88"/>
-      <c r="HS4" s="88"/>
-      <c r="HT4" s="88"/>
-      <c r="HU4" s="88"/>
-      <c r="HV4" s="88"/>
-      <c r="HW4" s="88"/>
-      <c r="HX4" s="88"/>
-      <c r="HY4" s="88"/>
-      <c r="HZ4" s="88"/>
-      <c r="IA4" s="88"/>
-      <c r="IB4" s="88"/>
-      <c r="IC4" s="88"/>
-      <c r="ID4" s="88"/>
-      <c r="IE4" s="88"/>
-      <c r="IF4" s="88"/>
-      <c r="IG4" s="88"/>
-      <c r="IH4" s="88"/>
-      <c r="II4" s="89" t="s">
+      <c r="IJ4" s="106"/>
+      <c r="IK4" s="106"/>
+      <c r="IL4" s="106"/>
+      <c r="IM4" s="106"/>
+      <c r="IN4" s="106"/>
+      <c r="IO4" s="106"/>
+      <c r="IP4" s="106"/>
+      <c r="IQ4" s="106"/>
+      <c r="IR4" s="106"/>
+      <c r="IS4" s="106"/>
+      <c r="IT4" s="106"/>
+      <c r="IU4" s="106"/>
+      <c r="IV4" s="106"/>
+      <c r="IW4" s="106"/>
+      <c r="IX4" s="106"/>
+      <c r="IY4" s="106"/>
+      <c r="IZ4" s="106"/>
+      <c r="JA4" s="106"/>
+      <c r="JB4" s="106"/>
+      <c r="JC4" s="106"/>
+      <c r="JD4" s="106"/>
+      <c r="JE4" s="106"/>
+      <c r="JF4" s="106"/>
+      <c r="JG4" s="106"/>
+      <c r="JH4" s="106"/>
+      <c r="JI4" s="106"/>
+      <c r="JJ4" s="106"/>
+      <c r="JK4" s="106"/>
+      <c r="JL4" s="106"/>
+      <c r="JM4" s="106"/>
+      <c r="JN4" s="106"/>
+      <c r="JO4" s="106"/>
+      <c r="JP4" s="106"/>
+      <c r="JQ4" s="106"/>
+      <c r="JR4" s="106"/>
+      <c r="JS4" s="106"/>
+      <c r="JT4" s="106"/>
+      <c r="JU4" s="106"/>
+      <c r="JV4" s="106"/>
+      <c r="JW4" s="106"/>
+      <c r="JX4" s="106"/>
+      <c r="JY4" s="106"/>
+      <c r="JZ4" s="106"/>
+      <c r="KA4" s="106"/>
+      <c r="KB4" s="106"/>
+      <c r="KC4" s="106"/>
+      <c r="KD4" s="106"/>
+      <c r="KE4" s="106"/>
+      <c r="KF4" s="106"/>
+      <c r="KG4" s="106"/>
+      <c r="KH4" s="106"/>
+      <c r="KI4" s="106"/>
+      <c r="KJ4" s="106"/>
+      <c r="KK4" s="106"/>
+      <c r="KL4" s="106"/>
+      <c r="KM4" s="106"/>
+      <c r="KN4" s="106"/>
+      <c r="KO4" s="106"/>
+      <c r="KP4" s="106"/>
+      <c r="KQ4" s="106"/>
+      <c r="KR4" s="106"/>
+      <c r="KS4" s="106"/>
+      <c r="KT4" s="106"/>
+      <c r="KU4" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="IJ4" s="89"/>
-      <c r="IK4" s="89"/>
-      <c r="IL4" s="89"/>
-      <c r="IM4" s="89"/>
-      <c r="IN4" s="89"/>
-      <c r="IO4" s="89"/>
-      <c r="IP4" s="89"/>
-      <c r="IQ4" s="89"/>
-      <c r="IR4" s="89"/>
-      <c r="IS4" s="89"/>
-      <c r="IT4" s="89"/>
-      <c r="IU4" s="89"/>
-      <c r="IV4" s="89"/>
-      <c r="IW4" s="89"/>
-      <c r="IX4" s="89"/>
-      <c r="IY4" s="89"/>
-      <c r="IZ4" s="89"/>
-      <c r="JA4" s="89"/>
-      <c r="JB4" s="89"/>
-      <c r="JC4" s="89"/>
-      <c r="JD4" s="89"/>
-      <c r="JE4" s="89"/>
-      <c r="JF4" s="89"/>
-      <c r="JG4" s="89"/>
-      <c r="JH4" s="89"/>
-      <c r="JI4" s="89"/>
-      <c r="JJ4" s="89"/>
-      <c r="JK4" s="89"/>
-      <c r="JL4" s="89"/>
-      <c r="JM4" s="89"/>
-      <c r="JN4" s="89"/>
-      <c r="JO4" s="89"/>
-      <c r="JP4" s="89"/>
-      <c r="JQ4" s="89"/>
-      <c r="JR4" s="89"/>
-      <c r="JS4" s="89"/>
-      <c r="JT4" s="89"/>
-      <c r="JU4" s="89"/>
-      <c r="JV4" s="89"/>
-      <c r="JW4" s="89"/>
-      <c r="JX4" s="89"/>
-      <c r="JY4" s="89"/>
-      <c r="JZ4" s="89"/>
-      <c r="KA4" s="89"/>
-      <c r="KB4" s="89"/>
-      <c r="KC4" s="89"/>
-      <c r="KD4" s="89"/>
-      <c r="KE4" s="89"/>
-      <c r="KF4" s="89"/>
-      <c r="KG4" s="89"/>
-      <c r="KH4" s="89"/>
-      <c r="KI4" s="89"/>
-      <c r="KJ4" s="89"/>
-      <c r="KK4" s="89"/>
-      <c r="KL4" s="89"/>
-      <c r="KM4" s="89"/>
-      <c r="KN4" s="89"/>
-      <c r="KO4" s="89"/>
-      <c r="KP4" s="89"/>
-      <c r="KQ4" s="89"/>
-      <c r="KR4" s="89"/>
-      <c r="KS4" s="89"/>
-      <c r="KT4" s="89"/>
-      <c r="KU4" s="88" t="s">
+      <c r="KV4" s="105"/>
+      <c r="KW4" s="105"/>
+      <c r="KX4" s="105"/>
+      <c r="KY4" s="105"/>
+      <c r="KZ4" s="105"/>
+      <c r="LA4" s="105"/>
+      <c r="LB4" s="105"/>
+      <c r="LC4" s="105"/>
+      <c r="LD4" s="105"/>
+      <c r="LE4" s="105"/>
+      <c r="LF4" s="105"/>
+      <c r="LG4" s="105"/>
+      <c r="LH4" s="105"/>
+      <c r="LI4" s="105"/>
+      <c r="LJ4" s="105"/>
+      <c r="LK4" s="105"/>
+      <c r="LL4" s="105"/>
+      <c r="LM4" s="105"/>
+      <c r="LN4" s="105"/>
+      <c r="LO4" s="105"/>
+      <c r="LP4" s="105"/>
+      <c r="LQ4" s="105"/>
+      <c r="LR4" s="105"/>
+      <c r="LS4" s="105"/>
+      <c r="LT4" s="105"/>
+      <c r="LU4" s="105"/>
+      <c r="LV4" s="105"/>
+      <c r="LW4" s="105"/>
+      <c r="LX4" s="105"/>
+      <c r="LY4" s="105"/>
+      <c r="LZ4" s="105"/>
+      <c r="MA4" s="105"/>
+      <c r="MB4" s="105"/>
+      <c r="MC4" s="105"/>
+      <c r="MD4" s="105"/>
+      <c r="ME4" s="105"/>
+      <c r="MF4" s="105"/>
+      <c r="MG4" s="105"/>
+      <c r="MH4" s="105"/>
+      <c r="MI4" s="105"/>
+      <c r="MJ4" s="105"/>
+      <c r="MK4" s="105"/>
+      <c r="ML4" s="105"/>
+      <c r="MM4" s="105"/>
+      <c r="MN4" s="105"/>
+      <c r="MO4" s="105"/>
+      <c r="MP4" s="105"/>
+      <c r="MQ4" s="105"/>
+      <c r="MR4" s="105"/>
+      <c r="MS4" s="105"/>
+      <c r="MT4" s="105"/>
+      <c r="MU4" s="105"/>
+      <c r="MV4" s="105"/>
+      <c r="MW4" s="105"/>
+      <c r="MX4" s="105"/>
+      <c r="MY4" s="105"/>
+      <c r="MZ4" s="105"/>
+      <c r="NA4" s="105"/>
+      <c r="NB4" s="105"/>
+      <c r="NC4" s="105"/>
+      <c r="ND4" s="105"/>
+      <c r="NE4" s="105"/>
+      <c r="NF4" s="105"/>
+      <c r="NG4" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="KV4" s="88"/>
-      <c r="KW4" s="88"/>
-      <c r="KX4" s="88"/>
-      <c r="KY4" s="88"/>
-      <c r="KZ4" s="88"/>
-      <c r="LA4" s="88"/>
-      <c r="LB4" s="88"/>
-      <c r="LC4" s="88"/>
-      <c r="LD4" s="88"/>
-      <c r="LE4" s="88"/>
-      <c r="LF4" s="88"/>
-      <c r="LG4" s="88"/>
-      <c r="LH4" s="88"/>
-      <c r="LI4" s="88"/>
-      <c r="LJ4" s="88"/>
-      <c r="LK4" s="88"/>
-      <c r="LL4" s="88"/>
-      <c r="LM4" s="88"/>
-      <c r="LN4" s="88"/>
-      <c r="LO4" s="88"/>
-      <c r="LP4" s="88"/>
-      <c r="LQ4" s="88"/>
-      <c r="LR4" s="88"/>
-      <c r="LS4" s="88"/>
-      <c r="LT4" s="88"/>
-      <c r="LU4" s="88"/>
-      <c r="LV4" s="88"/>
-      <c r="LW4" s="88"/>
-      <c r="LX4" s="88"/>
-      <c r="LY4" s="88"/>
-      <c r="LZ4" s="88"/>
-      <c r="MA4" s="88"/>
-      <c r="MB4" s="88"/>
-      <c r="MC4" s="88"/>
-      <c r="MD4" s="88"/>
-      <c r="ME4" s="88"/>
-      <c r="MF4" s="88"/>
-      <c r="MG4" s="88"/>
-      <c r="MH4" s="88"/>
-      <c r="MI4" s="88"/>
-      <c r="MJ4" s="88"/>
-      <c r="MK4" s="88"/>
-      <c r="ML4" s="88"/>
-      <c r="MM4" s="88"/>
-      <c r="MN4" s="88"/>
-      <c r="MO4" s="88"/>
-      <c r="MP4" s="88"/>
-      <c r="MQ4" s="88"/>
-      <c r="MR4" s="88"/>
-      <c r="MS4" s="88"/>
-      <c r="MT4" s="88"/>
-      <c r="MU4" s="88"/>
-      <c r="MV4" s="88"/>
-      <c r="MW4" s="88"/>
-      <c r="MX4" s="88"/>
-      <c r="MY4" s="88"/>
-      <c r="MZ4" s="88"/>
-      <c r="NA4" s="88"/>
-      <c r="NB4" s="88"/>
-      <c r="NC4" s="88"/>
-      <c r="ND4" s="88"/>
-      <c r="NE4" s="88"/>
-      <c r="NF4" s="88"/>
-      <c r="NG4" s="88" t="s">
+      <c r="NH4" s="105"/>
+      <c r="NI4" s="105"/>
+      <c r="NJ4" s="105"/>
+      <c r="NK4" s="105"/>
+      <c r="NL4" s="105"/>
+      <c r="NM4" s="105"/>
+      <c r="NN4" s="105"/>
+      <c r="NO4" s="105"/>
+      <c r="NP4" s="105"/>
+      <c r="NQ4" s="105"/>
+      <c r="NR4" s="105"/>
+      <c r="NS4" s="105"/>
+      <c r="NT4" s="105"/>
+      <c r="NU4" s="105"/>
+      <c r="NV4" s="105"/>
+      <c r="NW4" s="105"/>
+      <c r="NX4" s="105"/>
+      <c r="NY4" s="105"/>
+      <c r="NZ4" s="105"/>
+      <c r="OA4" s="105"/>
+      <c r="OB4" s="105"/>
+      <c r="OC4" s="105"/>
+      <c r="OD4" s="105"/>
+      <c r="OE4" s="105"/>
+      <c r="OF4" s="105"/>
+      <c r="OG4" s="105"/>
+      <c r="OH4" s="105"/>
+      <c r="OI4" s="105"/>
+      <c r="OJ4" s="105"/>
+      <c r="OK4" s="105"/>
+      <c r="OL4" s="105"/>
+      <c r="OM4" s="105"/>
+      <c r="ON4" s="105"/>
+      <c r="OO4" s="105"/>
+      <c r="OP4" s="105"/>
+      <c r="OQ4" s="105"/>
+      <c r="OR4" s="105"/>
+      <c r="OS4" s="105"/>
+      <c r="OT4" s="105"/>
+      <c r="OU4" s="105"/>
+      <c r="OV4" s="105"/>
+      <c r="OW4" s="105"/>
+      <c r="OX4" s="105"/>
+      <c r="OY4" s="105"/>
+      <c r="OZ4" s="105"/>
+      <c r="PA4" s="105"/>
+      <c r="PB4" s="105"/>
+      <c r="PC4" s="105"/>
+      <c r="PD4" s="105"/>
+      <c r="PE4" s="105"/>
+      <c r="PF4" s="105"/>
+      <c r="PG4" s="105"/>
+      <c r="PH4" s="105"/>
+      <c r="PI4" s="105"/>
+      <c r="PJ4" s="105"/>
+      <c r="PK4" s="105"/>
+      <c r="PL4" s="105"/>
+      <c r="PM4" s="105"/>
+      <c r="PN4" s="105"/>
+      <c r="PO4" s="105"/>
+      <c r="PP4" s="105"/>
+      <c r="PQ4" s="105"/>
+      <c r="PR4" s="105"/>
+      <c r="PS4" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="NH4" s="88"/>
-      <c r="NI4" s="88"/>
-      <c r="NJ4" s="88"/>
-      <c r="NK4" s="88"/>
-      <c r="NL4" s="88"/>
-      <c r="NM4" s="88"/>
-      <c r="NN4" s="88"/>
-      <c r="NO4" s="88"/>
-      <c r="NP4" s="88"/>
-      <c r="NQ4" s="88"/>
-      <c r="NR4" s="88"/>
-      <c r="NS4" s="88"/>
-      <c r="NT4" s="88"/>
-      <c r="NU4" s="88"/>
-      <c r="NV4" s="88"/>
-      <c r="NW4" s="88"/>
-      <c r="NX4" s="88"/>
-      <c r="NY4" s="88"/>
-      <c r="NZ4" s="88"/>
-      <c r="OA4" s="88"/>
-      <c r="OB4" s="88"/>
-      <c r="OC4" s="88"/>
-      <c r="OD4" s="88"/>
-      <c r="OE4" s="88"/>
-      <c r="OF4" s="88"/>
-      <c r="OG4" s="88"/>
-      <c r="OH4" s="88"/>
-      <c r="OI4" s="88"/>
-      <c r="OJ4" s="88"/>
-      <c r="OK4" s="88"/>
-      <c r="OL4" s="88"/>
-      <c r="OM4" s="88"/>
-      <c r="ON4" s="88"/>
-      <c r="OO4" s="88"/>
-      <c r="OP4" s="88"/>
-      <c r="OQ4" s="88"/>
-      <c r="OR4" s="88"/>
-      <c r="OS4" s="88"/>
-      <c r="OT4" s="88"/>
-      <c r="OU4" s="88"/>
-      <c r="OV4" s="88"/>
-      <c r="OW4" s="88"/>
-      <c r="OX4" s="88"/>
-      <c r="OY4" s="88"/>
-      <c r="OZ4" s="88"/>
-      <c r="PA4" s="88"/>
-      <c r="PB4" s="88"/>
-      <c r="PC4" s="88"/>
-      <c r="PD4" s="88"/>
-      <c r="PE4" s="88"/>
-      <c r="PF4" s="88"/>
-      <c r="PG4" s="88"/>
-      <c r="PH4" s="88"/>
-      <c r="PI4" s="88"/>
-      <c r="PJ4" s="88"/>
-      <c r="PK4" s="88"/>
-      <c r="PL4" s="88"/>
-      <c r="PM4" s="88"/>
-      <c r="PN4" s="88"/>
-      <c r="PO4" s="88"/>
-      <c r="PP4" s="88"/>
-      <c r="PQ4" s="88"/>
-      <c r="PR4" s="88"/>
-      <c r="PS4" s="88" t="s">
+      <c r="PT4" s="105"/>
+      <c r="PU4" s="105"/>
+      <c r="PV4" s="105"/>
+      <c r="PW4" s="105"/>
+      <c r="PX4" s="105"/>
+      <c r="PY4" s="105"/>
+      <c r="PZ4" s="105"/>
+      <c r="QA4" s="105"/>
+      <c r="QB4" s="105"/>
+      <c r="QC4" s="105"/>
+      <c r="QD4" s="105"/>
+      <c r="QE4" s="105"/>
+      <c r="QF4" s="105"/>
+      <c r="QG4" s="105"/>
+      <c r="QH4" s="105"/>
+      <c r="QI4" s="105"/>
+      <c r="QJ4" s="105"/>
+      <c r="QK4" s="105"/>
+      <c r="QL4" s="105"/>
+      <c r="QM4" s="105"/>
+      <c r="QN4" s="105"/>
+      <c r="QO4" s="105"/>
+      <c r="QP4" s="105"/>
+      <c r="QQ4" s="105"/>
+      <c r="QR4" s="105"/>
+      <c r="QS4" s="105"/>
+      <c r="QT4" s="105"/>
+      <c r="QU4" s="105"/>
+      <c r="QV4" s="105"/>
+      <c r="QW4" s="105"/>
+      <c r="QX4" s="105"/>
+      <c r="QY4" s="105"/>
+      <c r="QZ4" s="105"/>
+      <c r="RA4" s="105"/>
+      <c r="RB4" s="105"/>
+      <c r="RC4" s="105"/>
+      <c r="RD4" s="105"/>
+      <c r="RE4" s="105"/>
+      <c r="RF4" s="105"/>
+      <c r="RG4" s="105"/>
+      <c r="RH4" s="105"/>
+      <c r="RI4" s="105"/>
+      <c r="RJ4" s="105"/>
+      <c r="RK4" s="105"/>
+      <c r="RL4" s="105"/>
+      <c r="RM4" s="105"/>
+      <c r="RN4" s="105"/>
+      <c r="RO4" s="105"/>
+      <c r="RP4" s="105"/>
+      <c r="RQ4" s="105"/>
+      <c r="RR4" s="105"/>
+      <c r="RS4" s="105"/>
+      <c r="RT4" s="105"/>
+      <c r="RU4" s="105"/>
+      <c r="RV4" s="105"/>
+      <c r="RW4" s="105"/>
+      <c r="RX4" s="105"/>
+      <c r="RY4" s="105"/>
+      <c r="RZ4" s="105"/>
+      <c r="SA4" s="105"/>
+      <c r="SB4" s="105"/>
+      <c r="SC4" s="105"/>
+      <c r="SD4" s="105"/>
+      <c r="SE4" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="PT4" s="88"/>
-      <c r="PU4" s="88"/>
-      <c r="PV4" s="88"/>
-      <c r="PW4" s="88"/>
-      <c r="PX4" s="88"/>
-      <c r="PY4" s="88"/>
-      <c r="PZ4" s="88"/>
-      <c r="QA4" s="88"/>
-      <c r="QB4" s="88"/>
-      <c r="QC4" s="88"/>
-      <c r="QD4" s="88"/>
-      <c r="QE4" s="88"/>
-      <c r="QF4" s="88"/>
-      <c r="QG4" s="88"/>
-      <c r="QH4" s="88"/>
-      <c r="QI4" s="88"/>
-      <c r="QJ4" s="88"/>
-      <c r="QK4" s="88"/>
-      <c r="QL4" s="88"/>
-      <c r="QM4" s="88"/>
-      <c r="QN4" s="88"/>
-      <c r="QO4" s="88"/>
-      <c r="QP4" s="88"/>
-      <c r="QQ4" s="88"/>
-      <c r="QR4" s="88"/>
-      <c r="QS4" s="88"/>
-      <c r="QT4" s="88"/>
-      <c r="QU4" s="88"/>
-      <c r="QV4" s="88"/>
-      <c r="QW4" s="88"/>
-      <c r="QX4" s="88"/>
-      <c r="QY4" s="88"/>
-      <c r="QZ4" s="88"/>
-      <c r="RA4" s="88"/>
-      <c r="RB4" s="88"/>
-      <c r="RC4" s="88"/>
-      <c r="RD4" s="88"/>
-      <c r="RE4" s="88"/>
-      <c r="RF4" s="88"/>
-      <c r="RG4" s="88"/>
-      <c r="RH4" s="88"/>
-      <c r="RI4" s="88"/>
-      <c r="RJ4" s="88"/>
-      <c r="RK4" s="88"/>
-      <c r="RL4" s="88"/>
-      <c r="RM4" s="88"/>
-      <c r="RN4" s="88"/>
-      <c r="RO4" s="88"/>
-      <c r="RP4" s="88"/>
-      <c r="RQ4" s="88"/>
-      <c r="RR4" s="88"/>
-      <c r="RS4" s="88"/>
-      <c r="RT4" s="88"/>
-      <c r="RU4" s="88"/>
-      <c r="RV4" s="88"/>
-      <c r="RW4" s="88"/>
-      <c r="RX4" s="88"/>
-      <c r="RY4" s="88"/>
-      <c r="RZ4" s="88"/>
-      <c r="SA4" s="88"/>
-      <c r="SB4" s="88"/>
-      <c r="SC4" s="88"/>
-      <c r="SD4" s="88"/>
-      <c r="SE4" s="88" t="s">
+      <c r="SF4" s="105"/>
+      <c r="SG4" s="105"/>
+      <c r="SH4" s="105"/>
+      <c r="SI4" s="105"/>
+      <c r="SJ4" s="105"/>
+      <c r="SK4" s="105"/>
+      <c r="SL4" s="105"/>
+      <c r="SM4" s="105"/>
+      <c r="SN4" s="105"/>
+      <c r="SO4" s="105"/>
+      <c r="SP4" s="105"/>
+      <c r="SQ4" s="105"/>
+      <c r="SR4" s="105"/>
+      <c r="SS4" s="105"/>
+      <c r="ST4" s="105"/>
+      <c r="SU4" s="105"/>
+      <c r="SV4" s="105"/>
+      <c r="SW4" s="105"/>
+      <c r="SX4" s="105"/>
+      <c r="SY4" s="105"/>
+      <c r="SZ4" s="105"/>
+      <c r="TA4" s="105"/>
+      <c r="TB4" s="105"/>
+      <c r="TC4" s="105"/>
+      <c r="TD4" s="105"/>
+      <c r="TE4" s="105"/>
+      <c r="TF4" s="105"/>
+      <c r="TG4" s="105"/>
+      <c r="TH4" s="105"/>
+      <c r="TI4" s="105"/>
+      <c r="TJ4" s="105"/>
+      <c r="TK4" s="105"/>
+      <c r="TL4" s="105"/>
+      <c r="TM4" s="105"/>
+      <c r="TN4" s="105"/>
+      <c r="TO4" s="105"/>
+      <c r="TP4" s="105"/>
+      <c r="TQ4" s="105"/>
+      <c r="TR4" s="105"/>
+      <c r="TS4" s="105"/>
+      <c r="TT4" s="105"/>
+      <c r="TU4" s="105"/>
+      <c r="TV4" s="105"/>
+      <c r="TW4" s="105"/>
+      <c r="TX4" s="105"/>
+      <c r="TY4" s="105"/>
+      <c r="TZ4" s="105"/>
+      <c r="UA4" s="105"/>
+      <c r="UB4" s="105"/>
+      <c r="UC4" s="105"/>
+      <c r="UD4" s="105"/>
+      <c r="UE4" s="105"/>
+      <c r="UF4" s="105"/>
+      <c r="UG4" s="105"/>
+      <c r="UH4" s="105"/>
+      <c r="UI4" s="105"/>
+      <c r="UJ4" s="105"/>
+      <c r="UK4" s="105"/>
+      <c r="UL4" s="105"/>
+      <c r="UM4" s="105"/>
+      <c r="UN4" s="105"/>
+      <c r="UO4" s="105"/>
+      <c r="UP4" s="105"/>
+      <c r="UQ4" s="105"/>
+      <c r="UR4" s="105"/>
+      <c r="US4" s="105"/>
+      <c r="UT4" s="105"/>
+      <c r="UU4" s="105"/>
+      <c r="UV4" s="105"/>
+      <c r="UW4" s="105"/>
+      <c r="UX4" s="105"/>
+      <c r="UY4" s="105"/>
+      <c r="UZ4" s="105"/>
+      <c r="VA4" s="105"/>
+      <c r="VB4" s="105"/>
+      <c r="VC4" s="105"/>
+      <c r="VD4" s="105"/>
+      <c r="VE4" s="105"/>
+      <c r="VF4" s="105"/>
+      <c r="VG4" s="105"/>
+      <c r="VH4" s="105"/>
+      <c r="VI4" s="105"/>
+      <c r="VJ4" s="105"/>
+      <c r="VK4" s="105"/>
+      <c r="VL4" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="SF4" s="88"/>
-      <c r="SG4" s="88"/>
-      <c r="SH4" s="88"/>
-      <c r="SI4" s="88"/>
-      <c r="SJ4" s="88"/>
-      <c r="SK4" s="88"/>
-      <c r="SL4" s="88"/>
-      <c r="SM4" s="88"/>
-      <c r="SN4" s="88"/>
-      <c r="SO4" s="88"/>
-      <c r="SP4" s="88"/>
-      <c r="SQ4" s="88"/>
-      <c r="SR4" s="88"/>
-      <c r="SS4" s="88"/>
-      <c r="ST4" s="88"/>
-      <c r="SU4" s="88"/>
-      <c r="SV4" s="88"/>
-      <c r="SW4" s="88"/>
-      <c r="SX4" s="88"/>
-      <c r="SY4" s="88"/>
-      <c r="SZ4" s="88"/>
-      <c r="TA4" s="88"/>
-      <c r="TB4" s="88"/>
-      <c r="TC4" s="88"/>
-      <c r="TD4" s="88"/>
-      <c r="TE4" s="88"/>
-      <c r="TF4" s="88"/>
-      <c r="TG4" s="88"/>
-      <c r="TH4" s="88"/>
-      <c r="TI4" s="88"/>
-      <c r="TJ4" s="88"/>
-      <c r="TK4" s="88"/>
-      <c r="TL4" s="88"/>
-      <c r="TM4" s="88"/>
-      <c r="TN4" s="88"/>
-      <c r="TO4" s="88"/>
-      <c r="TP4" s="88"/>
-      <c r="TQ4" s="88"/>
-      <c r="TR4" s="88"/>
-      <c r="TS4" s="88"/>
-      <c r="TT4" s="88"/>
-      <c r="TU4" s="88"/>
-      <c r="TV4" s="88"/>
-      <c r="TW4" s="88"/>
-      <c r="TX4" s="88"/>
-      <c r="TY4" s="88"/>
-      <c r="TZ4" s="88"/>
-      <c r="UA4" s="88"/>
-      <c r="UB4" s="88"/>
-      <c r="UC4" s="88"/>
-      <c r="UD4" s="88"/>
-      <c r="UE4" s="88"/>
-      <c r="UF4" s="88"/>
-      <c r="UG4" s="88"/>
-      <c r="UH4" s="88"/>
-      <c r="UI4" s="88"/>
-      <c r="UJ4" s="88"/>
-      <c r="UK4" s="88"/>
-      <c r="UL4" s="88"/>
-      <c r="UM4" s="88"/>
-      <c r="UN4" s="88"/>
-      <c r="UO4" s="88"/>
-      <c r="UP4" s="88"/>
-      <c r="UQ4" s="88"/>
-      <c r="UR4" s="88"/>
-      <c r="US4" s="88"/>
-      <c r="UT4" s="88"/>
-      <c r="UU4" s="88"/>
-      <c r="UV4" s="88"/>
-      <c r="UW4" s="88"/>
-      <c r="UX4" s="88"/>
-      <c r="UY4" s="88"/>
-      <c r="UZ4" s="88"/>
-      <c r="VA4" s="88"/>
-      <c r="VB4" s="88"/>
-      <c r="VC4" s="88"/>
-      <c r="VD4" s="88"/>
-      <c r="VE4" s="88"/>
-      <c r="VF4" s="88"/>
-      <c r="VG4" s="88"/>
-      <c r="VH4" s="88"/>
-      <c r="VI4" s="88"/>
-      <c r="VJ4" s="88"/>
-      <c r="VK4" s="88"/>
-      <c r="VL4" s="89" t="s">
+      <c r="VM4" s="106"/>
+      <c r="VN4" s="106"/>
+      <c r="VO4" s="106"/>
+      <c r="VP4" s="106"/>
+      <c r="VQ4" s="106"/>
+      <c r="VR4" s="106"/>
+      <c r="VS4" s="106"/>
+      <c r="VT4" s="106"/>
+      <c r="VU4" s="106"/>
+      <c r="VV4" s="106"/>
+      <c r="VW4" s="106"/>
+      <c r="VX4" s="106"/>
+      <c r="VY4" s="106"/>
+      <c r="VZ4" s="106"/>
+      <c r="WA4" s="106"/>
+      <c r="WB4" s="106"/>
+      <c r="WC4" s="106"/>
+      <c r="WD4" s="106"/>
+      <c r="WE4" s="106"/>
+      <c r="WF4" s="106"/>
+      <c r="WG4" s="106"/>
+      <c r="WH4" s="106"/>
+      <c r="WI4" s="106"/>
+      <c r="WJ4" s="106"/>
+      <c r="WK4" s="106"/>
+      <c r="WL4" s="106"/>
+      <c r="WM4" s="106"/>
+      <c r="WN4" s="106"/>
+      <c r="WO4" s="106"/>
+      <c r="WP4" s="106"/>
+      <c r="WQ4" s="106"/>
+      <c r="WR4" s="106"/>
+      <c r="WS4" s="106"/>
+      <c r="WT4" s="106"/>
+      <c r="WU4" s="106"/>
+      <c r="WV4" s="106"/>
+      <c r="WW4" s="106"/>
+      <c r="WX4" s="106"/>
+      <c r="WY4" s="106"/>
+      <c r="WZ4" s="106"/>
+      <c r="XA4" s="106"/>
+      <c r="XB4" s="106"/>
+      <c r="XC4" s="106"/>
+      <c r="XD4" s="106"/>
+      <c r="XE4" s="106"/>
+      <c r="XF4" s="106"/>
+      <c r="XG4" s="106"/>
+      <c r="XH4" s="106"/>
+      <c r="XI4" s="106"/>
+      <c r="XJ4" s="106"/>
+      <c r="XK4" s="106"/>
+      <c r="XL4" s="106"/>
+      <c r="XM4" s="106"/>
+      <c r="XN4" s="106"/>
+      <c r="XO4" s="106"/>
+      <c r="XP4" s="106"/>
+      <c r="XQ4" s="106"/>
+      <c r="XR4" s="106"/>
+      <c r="XS4" s="106"/>
+      <c r="XT4" s="106"/>
+      <c r="XU4" s="106"/>
+      <c r="XV4" s="106"/>
+      <c r="XW4" s="106"/>
+      <c r="XX4" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="VM4" s="89"/>
-      <c r="VN4" s="89"/>
-      <c r="VO4" s="89"/>
-      <c r="VP4" s="89"/>
-      <c r="VQ4" s="89"/>
-      <c r="VR4" s="89"/>
-      <c r="VS4" s="89"/>
-      <c r="VT4" s="89"/>
-      <c r="VU4" s="89"/>
-      <c r="VV4" s="89"/>
-      <c r="VW4" s="89"/>
-      <c r="VX4" s="89"/>
-      <c r="VY4" s="89"/>
-      <c r="VZ4" s="89"/>
-      <c r="WA4" s="89"/>
-      <c r="WB4" s="89"/>
-      <c r="WC4" s="89"/>
-      <c r="WD4" s="89"/>
-      <c r="WE4" s="89"/>
-      <c r="WF4" s="89"/>
-      <c r="WG4" s="89"/>
-      <c r="WH4" s="89"/>
-      <c r="WI4" s="89"/>
-      <c r="WJ4" s="89"/>
-      <c r="WK4" s="89"/>
-      <c r="WL4" s="89"/>
-      <c r="WM4" s="89"/>
-      <c r="WN4" s="89"/>
-      <c r="WO4" s="89"/>
-      <c r="WP4" s="89"/>
-      <c r="WQ4" s="89"/>
-      <c r="WR4" s="89"/>
-      <c r="WS4" s="89"/>
-      <c r="WT4" s="89"/>
-      <c r="WU4" s="89"/>
-      <c r="WV4" s="89"/>
-      <c r="WW4" s="89"/>
-      <c r="WX4" s="89"/>
-      <c r="WY4" s="89"/>
-      <c r="WZ4" s="89"/>
-      <c r="XA4" s="89"/>
-      <c r="XB4" s="89"/>
-      <c r="XC4" s="89"/>
-      <c r="XD4" s="89"/>
-      <c r="XE4" s="89"/>
-      <c r="XF4" s="89"/>
-      <c r="XG4" s="89"/>
-      <c r="XH4" s="89"/>
-      <c r="XI4" s="89"/>
-      <c r="XJ4" s="89"/>
-      <c r="XK4" s="89"/>
-      <c r="XL4" s="89"/>
-      <c r="XM4" s="89"/>
-      <c r="XN4" s="89"/>
-      <c r="XO4" s="89"/>
-      <c r="XP4" s="89"/>
-      <c r="XQ4" s="89"/>
-      <c r="XR4" s="89"/>
-      <c r="XS4" s="89"/>
-      <c r="XT4" s="89"/>
-      <c r="XU4" s="89"/>
-      <c r="XV4" s="89"/>
-      <c r="XW4" s="89"/>
-      <c r="XX4" s="88" t="s">
+      <c r="XY4" s="105"/>
+      <c r="XZ4" s="105"/>
+      <c r="YA4" s="105"/>
+      <c r="YB4" s="105"/>
+      <c r="YC4" s="105"/>
+      <c r="YD4" s="105"/>
+      <c r="YE4" s="105"/>
+      <c r="YF4" s="105"/>
+      <c r="YG4" s="105"/>
+      <c r="YH4" s="105"/>
+      <c r="YI4" s="105"/>
+      <c r="YJ4" s="105"/>
+      <c r="YK4" s="105"/>
+      <c r="YL4" s="105"/>
+      <c r="YM4" s="105"/>
+      <c r="YN4" s="105"/>
+      <c r="YO4" s="105"/>
+      <c r="YP4" s="105"/>
+      <c r="YQ4" s="105"/>
+      <c r="YR4" s="105"/>
+      <c r="YS4" s="105"/>
+      <c r="YT4" s="105"/>
+      <c r="YU4" s="105"/>
+      <c r="YV4" s="105"/>
+      <c r="YW4" s="105"/>
+      <c r="YX4" s="105"/>
+      <c r="YY4" s="105"/>
+      <c r="YZ4" s="105"/>
+      <c r="ZA4" s="105"/>
+      <c r="ZB4" s="105"/>
+      <c r="ZC4" s="105"/>
+      <c r="ZD4" s="105"/>
+      <c r="ZE4" s="105"/>
+      <c r="ZF4" s="105"/>
+      <c r="ZG4" s="105"/>
+      <c r="ZH4" s="105"/>
+      <c r="ZI4" s="105"/>
+      <c r="ZJ4" s="105"/>
+      <c r="ZK4" s="105"/>
+      <c r="ZL4" s="105"/>
+      <c r="ZM4" s="105"/>
+      <c r="ZN4" s="105"/>
+      <c r="ZO4" s="105"/>
+      <c r="ZP4" s="105"/>
+      <c r="ZQ4" s="105"/>
+      <c r="ZR4" s="105"/>
+      <c r="ZS4" s="105"/>
+      <c r="ZT4" s="105"/>
+      <c r="ZU4" s="105"/>
+      <c r="ZV4" s="105"/>
+      <c r="ZW4" s="105"/>
+      <c r="ZX4" s="105"/>
+      <c r="ZY4" s="105"/>
+      <c r="ZZ4" s="105"/>
+      <c r="AAA4" s="105"/>
+      <c r="AAB4" s="105"/>
+      <c r="AAC4" s="105"/>
+      <c r="AAD4" s="105"/>
+      <c r="AAE4" s="105"/>
+      <c r="AAF4" s="105"/>
+      <c r="AAG4" s="105"/>
+      <c r="AAH4" s="105"/>
+      <c r="AAI4" s="105"/>
+      <c r="AAJ4" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="XY4" s="88"/>
-      <c r="XZ4" s="88"/>
-      <c r="YA4" s="88"/>
-      <c r="YB4" s="88"/>
-      <c r="YC4" s="88"/>
-      <c r="YD4" s="88"/>
-      <c r="YE4" s="88"/>
-      <c r="YF4" s="88"/>
-      <c r="YG4" s="88"/>
-      <c r="YH4" s="88"/>
-      <c r="YI4" s="88"/>
-      <c r="YJ4" s="88"/>
-      <c r="YK4" s="88"/>
-      <c r="YL4" s="88"/>
-      <c r="YM4" s="88"/>
-      <c r="YN4" s="88"/>
-      <c r="YO4" s="88"/>
-      <c r="YP4" s="88"/>
-      <c r="YQ4" s="88"/>
-      <c r="YR4" s="88"/>
-      <c r="YS4" s="88"/>
-      <c r="YT4" s="88"/>
-      <c r="YU4" s="88"/>
-      <c r="YV4" s="88"/>
-      <c r="YW4" s="88"/>
-      <c r="YX4" s="88"/>
-      <c r="YY4" s="88"/>
-      <c r="YZ4" s="88"/>
-      <c r="ZA4" s="88"/>
-      <c r="ZB4" s="88"/>
-      <c r="ZC4" s="88"/>
-      <c r="ZD4" s="88"/>
-      <c r="ZE4" s="88"/>
-      <c r="ZF4" s="88"/>
-      <c r="ZG4" s="88"/>
-      <c r="ZH4" s="88"/>
-      <c r="ZI4" s="88"/>
-      <c r="ZJ4" s="88"/>
-      <c r="ZK4" s="88"/>
-      <c r="ZL4" s="88"/>
-      <c r="ZM4" s="88"/>
-      <c r="ZN4" s="88"/>
-      <c r="ZO4" s="88"/>
-      <c r="ZP4" s="88"/>
-      <c r="ZQ4" s="88"/>
-      <c r="ZR4" s="88"/>
-      <c r="ZS4" s="88"/>
-      <c r="ZT4" s="88"/>
-      <c r="ZU4" s="88"/>
-      <c r="ZV4" s="88"/>
-      <c r="ZW4" s="88"/>
-      <c r="ZX4" s="88"/>
-      <c r="ZY4" s="88"/>
-      <c r="ZZ4" s="88"/>
-      <c r="AAA4" s="88"/>
-      <c r="AAB4" s="88"/>
-      <c r="AAC4" s="88"/>
-      <c r="AAD4" s="88"/>
-      <c r="AAE4" s="88"/>
-      <c r="AAF4" s="88"/>
-      <c r="AAG4" s="88"/>
-      <c r="AAH4" s="88"/>
-      <c r="AAI4" s="88"/>
-      <c r="AAJ4" s="88" t="s">
+      <c r="AAK4" s="105"/>
+      <c r="AAL4" s="105"/>
+      <c r="AAM4" s="105"/>
+      <c r="AAN4" s="105"/>
+      <c r="AAO4" s="105"/>
+      <c r="AAP4" s="105"/>
+      <c r="AAQ4" s="105"/>
+      <c r="AAR4" s="105"/>
+      <c r="AAS4" s="105"/>
+      <c r="AAT4" s="105"/>
+      <c r="AAU4" s="105"/>
+      <c r="AAV4" s="105"/>
+      <c r="AAW4" s="105"/>
+      <c r="AAX4" s="105"/>
+      <c r="AAY4" s="105"/>
+      <c r="AAZ4" s="105"/>
+      <c r="ABA4" s="105"/>
+      <c r="ABB4" s="105"/>
+      <c r="ABC4" s="105"/>
+      <c r="ABD4" s="105"/>
+      <c r="ABE4" s="105"/>
+      <c r="ABF4" s="105"/>
+      <c r="ABG4" s="105"/>
+      <c r="ABH4" s="105"/>
+      <c r="ABI4" s="105"/>
+      <c r="ABJ4" s="105"/>
+      <c r="ABK4" s="105"/>
+      <c r="ABL4" s="105"/>
+      <c r="ABM4" s="105"/>
+      <c r="ABN4" s="105"/>
+      <c r="ABO4" s="105"/>
+      <c r="ABP4" s="105"/>
+      <c r="ABQ4" s="105"/>
+      <c r="ABR4" s="105"/>
+      <c r="ABS4" s="105"/>
+      <c r="ABT4" s="105"/>
+      <c r="ABU4" s="105"/>
+      <c r="ABV4" s="105"/>
+      <c r="ABW4" s="105"/>
+      <c r="ABX4" s="105"/>
+      <c r="ABY4" s="105"/>
+      <c r="ABZ4" s="105"/>
+      <c r="ACA4" s="105"/>
+      <c r="ACB4" s="105"/>
+      <c r="ACC4" s="105"/>
+      <c r="ACD4" s="105"/>
+      <c r="ACE4" s="105"/>
+      <c r="ACF4" s="105"/>
+      <c r="ACG4" s="105"/>
+      <c r="ACH4" s="105"/>
+      <c r="ACI4" s="105"/>
+      <c r="ACJ4" s="105"/>
+      <c r="ACK4" s="105"/>
+      <c r="ACL4" s="105"/>
+      <c r="ACM4" s="105"/>
+      <c r="ACN4" s="105"/>
+      <c r="ACO4" s="105"/>
+      <c r="ACP4" s="105"/>
+      <c r="ACQ4" s="105"/>
+      <c r="ACR4" s="105"/>
+      <c r="ACS4" s="105"/>
+      <c r="ACT4" s="105"/>
+      <c r="ACU4" s="105"/>
+      <c r="ACV4" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="AAK4" s="88"/>
-      <c r="AAL4" s="88"/>
-      <c r="AAM4" s="88"/>
-      <c r="AAN4" s="88"/>
-      <c r="AAO4" s="88"/>
-      <c r="AAP4" s="88"/>
-      <c r="AAQ4" s="88"/>
-      <c r="AAR4" s="88"/>
-      <c r="AAS4" s="88"/>
-      <c r="AAT4" s="88"/>
-      <c r="AAU4" s="88"/>
-      <c r="AAV4" s="88"/>
-      <c r="AAW4" s="88"/>
-      <c r="AAX4" s="88"/>
-      <c r="AAY4" s="88"/>
-      <c r="AAZ4" s="88"/>
-      <c r="ABA4" s="88"/>
-      <c r="ABB4" s="88"/>
-      <c r="ABC4" s="88"/>
-      <c r="ABD4" s="88"/>
-      <c r="ABE4" s="88"/>
-      <c r="ABF4" s="88"/>
-      <c r="ABG4" s="88"/>
-      <c r="ABH4" s="88"/>
-      <c r="ABI4" s="88"/>
-      <c r="ABJ4" s="88"/>
-      <c r="ABK4" s="88"/>
-      <c r="ABL4" s="88"/>
-      <c r="ABM4" s="88"/>
-      <c r="ABN4" s="88"/>
-      <c r="ABO4" s="88"/>
-      <c r="ABP4" s="88"/>
-      <c r="ABQ4" s="88"/>
-      <c r="ABR4" s="88"/>
-      <c r="ABS4" s="88"/>
-      <c r="ABT4" s="88"/>
-      <c r="ABU4" s="88"/>
-      <c r="ABV4" s="88"/>
-      <c r="ABW4" s="88"/>
-      <c r="ABX4" s="88"/>
-      <c r="ABY4" s="88"/>
-      <c r="ABZ4" s="88"/>
-      <c r="ACA4" s="88"/>
-      <c r="ACB4" s="88"/>
-      <c r="ACC4" s="88"/>
-      <c r="ACD4" s="88"/>
-      <c r="ACE4" s="88"/>
-      <c r="ACF4" s="88"/>
-      <c r="ACG4" s="88"/>
-      <c r="ACH4" s="88"/>
-      <c r="ACI4" s="88"/>
-      <c r="ACJ4" s="88"/>
-      <c r="ACK4" s="88"/>
-      <c r="ACL4" s="88"/>
-      <c r="ACM4" s="88"/>
-      <c r="ACN4" s="88"/>
-      <c r="ACO4" s="88"/>
-      <c r="ACP4" s="88"/>
-      <c r="ACQ4" s="88"/>
-      <c r="ACR4" s="88"/>
-      <c r="ACS4" s="88"/>
-      <c r="ACT4" s="88"/>
-      <c r="ACU4" s="88"/>
-      <c r="ACV4" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="ACW4" s="88"/>
-      <c r="ACX4" s="88"/>
-      <c r="ACY4" s="88"/>
-      <c r="ACZ4" s="88"/>
-      <c r="ADA4" s="88"/>
-      <c r="ADB4" s="88"/>
-      <c r="ADC4" s="88"/>
-      <c r="ADD4" s="88"/>
-      <c r="ADE4" s="88"/>
-      <c r="ADF4" s="88"/>
-      <c r="ADG4" s="88"/>
-      <c r="ADH4" s="88"/>
-      <c r="ADI4" s="88"/>
-      <c r="ADJ4" s="88"/>
-      <c r="ADK4" s="88"/>
-      <c r="ADL4" s="88"/>
-      <c r="ADM4" s="88"/>
-      <c r="ADN4" s="88"/>
-      <c r="ADO4" s="88"/>
-      <c r="ADP4" s="88"/>
-      <c r="ADQ4" s="88"/>
-      <c r="ADR4" s="88"/>
-      <c r="ADS4" s="88"/>
-      <c r="ADT4" s="88"/>
-      <c r="ADU4" s="88"/>
-      <c r="ADV4" s="88"/>
-      <c r="ADW4" s="88"/>
-      <c r="ADX4" s="88"/>
-      <c r="ADY4" s="88"/>
-      <c r="ADZ4" s="88"/>
-      <c r="AEA4" s="88"/>
-      <c r="AEB4" s="88"/>
-      <c r="AEC4" s="88"/>
-      <c r="AED4" s="88"/>
-      <c r="AEE4" s="88"/>
-      <c r="AEF4" s="88"/>
-      <c r="AEG4" s="88"/>
-      <c r="AEH4" s="88"/>
-      <c r="AEI4" s="88"/>
-      <c r="AEJ4" s="88"/>
-      <c r="AEK4" s="88"/>
-      <c r="AEL4" s="88"/>
-      <c r="AEM4" s="88"/>
-      <c r="AEN4" s="88"/>
-      <c r="AEO4" s="88"/>
-      <c r="AEP4" s="88"/>
-      <c r="AEQ4" s="88"/>
-      <c r="AER4" s="88"/>
-      <c r="AES4" s="88"/>
-      <c r="AET4" s="88"/>
-      <c r="AEU4" s="88"/>
-      <c r="AEV4" s="88"/>
-      <c r="AEW4" s="88"/>
-      <c r="AEX4" s="88"/>
-      <c r="AEY4" s="88"/>
-      <c r="AEZ4" s="88"/>
-      <c r="AFA4" s="88"/>
-      <c r="AFB4" s="88"/>
-      <c r="AFC4" s="88"/>
-      <c r="AFD4" s="88"/>
-      <c r="AFE4" s="88"/>
-      <c r="AFF4" s="88"/>
-      <c r="AFG4" s="88"/>
+      <c r="ACW4" s="105"/>
+      <c r="ACX4" s="105"/>
+      <c r="ACY4" s="105"/>
+      <c r="ACZ4" s="105"/>
+      <c r="ADA4" s="105"/>
+      <c r="ADB4" s="105"/>
+      <c r="ADC4" s="105"/>
+      <c r="ADD4" s="105"/>
+      <c r="ADE4" s="105"/>
+      <c r="ADF4" s="105"/>
+      <c r="ADG4" s="105"/>
+      <c r="ADH4" s="105"/>
+      <c r="ADI4" s="105"/>
+      <c r="ADJ4" s="105"/>
+      <c r="ADK4" s="105"/>
+      <c r="ADL4" s="105"/>
+      <c r="ADM4" s="105"/>
+      <c r="ADN4" s="105"/>
+      <c r="ADO4" s="105"/>
+      <c r="ADP4" s="105"/>
+      <c r="ADQ4" s="105"/>
+      <c r="ADR4" s="105"/>
+      <c r="ADS4" s="105"/>
+      <c r="ADT4" s="105"/>
+      <c r="ADU4" s="105"/>
+      <c r="ADV4" s="105"/>
+      <c r="ADW4" s="105"/>
+      <c r="ADX4" s="105"/>
+      <c r="ADY4" s="105"/>
+      <c r="ADZ4" s="105"/>
+      <c r="AEA4" s="105"/>
+      <c r="AEB4" s="105"/>
+      <c r="AEC4" s="105"/>
+      <c r="AED4" s="105"/>
+      <c r="AEE4" s="105"/>
+      <c r="AEF4" s="105"/>
+      <c r="AEG4" s="105"/>
+      <c r="AEH4" s="105"/>
+      <c r="AEI4" s="105"/>
+      <c r="AEJ4" s="105"/>
+      <c r="AEK4" s="105"/>
+      <c r="AEL4" s="105"/>
+      <c r="AEM4" s="105"/>
+      <c r="AEN4" s="105"/>
+      <c r="AEO4" s="105"/>
+      <c r="AEP4" s="105"/>
+      <c r="AEQ4" s="105"/>
+      <c r="AER4" s="105"/>
+      <c r="AES4" s="105"/>
+      <c r="AET4" s="105"/>
+      <c r="AEU4" s="105"/>
+      <c r="AEV4" s="105"/>
+      <c r="AEW4" s="105"/>
+      <c r="AEX4" s="105"/>
+      <c r="AEY4" s="105"/>
+      <c r="AEZ4" s="105"/>
+      <c r="AFA4" s="105"/>
+      <c r="AFB4" s="105"/>
+      <c r="AFC4" s="105"/>
+      <c r="AFD4" s="105"/>
+      <c r="AFE4" s="105"/>
+      <c r="AFF4" s="105"/>
+      <c r="AFG4" s="105"/>
     </row>
     <row r="5" spans="1:839">
       <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:839" ht="15.95" customHeight="1">
+    <row r="6" spans="1:839" ht="16" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="35"/>
@@ -8516,10 +9536,10 @@
     </row>
     <row r="8" spans="1:839">
       <c r="A8" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="38">
         <f t="shared" si="0"/>
@@ -8533,10 +9553,10 @@
       <c r="F8" s="25"/>
       <c r="G8" s="39"/>
       <c r="I8" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="44">
@@ -8784,7 +9804,7 @@
       </c>
       <c r="CP8" s="37"/>
       <c r="CQ8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CR8" s="44">
         <v>24956.06069779491</v>
@@ -8971,7 +9991,7 @@
       </c>
       <c r="FC8" s="37"/>
       <c r="FD8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="FE8" s="40"/>
       <c r="FF8" s="44">
@@ -9219,7 +10239,7 @@
       </c>
       <c r="IJ8" s="37"/>
       <c r="IK8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="IL8" s="44">
         <v>24706.500090816964</v>
@@ -9406,7 +10426,7 @@
       </c>
       <c r="KV8" s="37"/>
       <c r="KW8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="KX8" s="44">
         <v>3379.2366551017421</v>
@@ -9593,7 +10613,7 @@
       </c>
       <c r="NH8" s="37"/>
       <c r="NI8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="NJ8" s="44">
         <v>8008790.8725911323</v>
@@ -9780,7 +10800,7 @@
       </c>
       <c r="PT8" s="37"/>
       <c r="PU8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="PV8" s="44">
         <v>48016.249479671693</v>
@@ -9967,7 +10987,7 @@
       </c>
       <c r="SF8" s="37"/>
       <c r="SG8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="SH8" s="40"/>
       <c r="SI8" s="44">
@@ -10215,7 +11235,7 @@
       </c>
       <c r="VM8" s="37"/>
       <c r="VN8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="VO8" s="44">
         <v>249.56060697794933</v>
@@ -10402,7 +11422,7 @@
       </c>
       <c r="XY8" s="37"/>
       <c r="XZ8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="YA8" s="44">
         <v>29.174105629817372</v>
@@ -10589,7 +11609,7 @@
       </c>
       <c r="AAK8" s="37"/>
       <c r="AAL8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AAM8" s="44">
         <v>78478.344144208721</v>
@@ -10776,7 +11796,7 @@
       </c>
       <c r="ACW8" s="37"/>
       <c r="ACX8" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="ACY8" s="44">
         <v>29118.674829120722</v>
@@ -10964,10 +11984,10 @@
     </row>
     <row r="9" spans="1:839">
       <c r="A9" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="38">
         <f t="shared" si="0"/>
@@ -10981,10 +12001,10 @@
       <c r="F9" s="25"/>
       <c r="G9" s="39"/>
       <c r="I9" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="44">
@@ -11232,7 +12252,7 @@
       </c>
       <c r="CP9" s="47"/>
       <c r="CQ9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CR9" s="44">
         <v>15682.492969685489</v>
@@ -11419,7 +12439,7 @@
       </c>
       <c r="FC9" s="47"/>
       <c r="FD9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="FE9" s="40"/>
       <c r="FF9" s="44">
@@ -11667,7 +12687,7 @@
       </c>
       <c r="IJ9" s="47"/>
       <c r="IK9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="IL9" s="44">
         <v>15525.66803998863</v>
@@ -11854,7 +12874,7 @@
       </c>
       <c r="KV9" s="47"/>
       <c r="KW9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="KX9" s="44">
         <v>2119.6878765816427</v>
@@ -12041,7 +13061,7 @@
       </c>
       <c r="NH9" s="47"/>
       <c r="NI9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="NJ9" s="44">
         <v>5023660.2674984941</v>
@@ -12228,7 +13248,7 @@
       </c>
       <c r="PT9" s="47"/>
       <c r="PU9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="PV9" s="44">
         <v>30119.068975923874</v>
@@ -12415,7 +13435,7 @@
       </c>
       <c r="SF9" s="47"/>
       <c r="SG9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="SH9" s="40"/>
       <c r="SI9" s="44">
@@ -12663,7 +13683,7 @@
       </c>
       <c r="VM9" s="47"/>
       <c r="VN9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="VO9" s="44">
         <v>156.82492969685504</v>
@@ -12850,7 +13870,7 @@
       </c>
       <c r="XY9" s="47"/>
       <c r="XZ9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="YA9" s="44">
         <v>18.299990301145169</v>
@@ -13037,7 +14057,7 @@
       </c>
       <c r="AAK9" s="47"/>
       <c r="AAL9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AAM9" s="44">
         <v>49226.973910080502</v>
@@ -13224,7 +14244,7 @@
       </c>
       <c r="ACW9" s="47"/>
       <c r="ACX9" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="ACY9" s="44">
         <v>18265.220319572993</v>
@@ -13412,10 +14432,10 @@
     </row>
     <row r="10" spans="1:839">
       <c r="A10" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="38">
         <f t="shared" si="0"/>
@@ -13429,10 +14449,10 @@
       <c r="F10" s="25"/>
       <c r="G10" s="39"/>
       <c r="I10" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="44">
@@ -13680,7 +14700,7 @@
       </c>
       <c r="CP10" s="47"/>
       <c r="CQ10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CR10" s="44">
         <v>6153.4877205834546</v>
@@ -13867,7 +14887,7 @@
       </c>
       <c r="FC10" s="47"/>
       <c r="FD10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FE10" s="40"/>
       <c r="FF10" s="44">
@@ -14115,7 +15135,7 @@
       </c>
       <c r="IJ10" s="47"/>
       <c r="IK10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="IL10" s="44">
         <v>6091.9528433776213</v>
@@ -14302,7 +15322,7 @@
       </c>
       <c r="KV10" s="47"/>
       <c r="KW10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="KX10" s="44">
         <v>832.41043611113253</v>
@@ -14489,7 +15509,7 @@
       </c>
       <c r="NH10" s="47"/>
       <c r="NI10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="NJ10" s="44">
         <v>1972812.7335833842</v>
@@ -14676,7 +15696,7 @@
       </c>
       <c r="PT10" s="47"/>
       <c r="PU10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="PV10" s="44">
         <v>11827.886368790303</v>
@@ -14863,7 +15883,7 @@
       </c>
       <c r="SF10" s="47"/>
       <c r="SG10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="SH10" s="40"/>
       <c r="SI10" s="44">
@@ -15111,7 +16131,7 @@
       </c>
       <c r="VM10" s="47"/>
       <c r="VN10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="VO10" s="44">
         <v>61.534877205834604</v>
@@ -15298,7 +16318,7 @@
       </c>
       <c r="XY10" s="47"/>
       <c r="XZ10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="YA10" s="44">
         <v>7.1864839515767365</v>
@@ -15485,7 +16505,7 @@
       </c>
       <c r="AAK10" s="47"/>
       <c r="AAL10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AAM10" s="44">
         <v>19331.64182974142</v>
@@ -15672,7 +16692,7 @@
       </c>
       <c r="ACW10" s="47"/>
       <c r="ACX10" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="ACY10" s="44">
         <v>7172.8296320687414</v>
@@ -15860,7 +16880,7 @@
     </row>
     <row r="11" spans="1:839">
       <c r="A11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="38">
@@ -15875,7 +16895,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="39"/>
       <c r="I11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="40"/>
@@ -16123,7 +17143,7 @@
         <v>12808074.556475203</v>
       </c>
       <c r="CP11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CQ11" s="46"/>
       <c r="CR11" s="41">
@@ -16310,7 +17330,7 @@
         <v>176702.42892123142</v>
       </c>
       <c r="FC11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="FD11" s="46"/>
       <c r="FE11" s="40"/>
@@ -16558,7 +17578,7 @@
         <v>12673036.283556387</v>
       </c>
       <c r="IJ11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="IK11" s="46"/>
       <c r="IL11" s="41">
@@ -16745,7 +17765,7 @@
         <v>174832.64848552493</v>
       </c>
       <c r="KV11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="KW11" s="46"/>
       <c r="KX11" s="41">
@@ -16932,7 +17952,7 @@
         <v>18721.747158986538</v>
       </c>
       <c r="NH11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="NI11" s="46"/>
       <c r="NJ11" s="41">
@@ -17119,7 +18139,7 @@
         <v>44370540.766798079</v>
       </c>
       <c r="PT11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="PU11" s="46"/>
       <c r="PV11" s="41">
@@ -17306,7 +18326,7 @@
         <v>266021.04973147146</v>
       </c>
       <c r="SF11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="SG11" s="46"/>
       <c r="SH11" s="40"/>
@@ -17554,7 +18574,7 @@
         <v>135038.27291881456</v>
       </c>
       <c r="VM11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="VN11" s="46"/>
       <c r="VO11" s="41">
@@ -17741,7 +18761,7 @@
         <v>1869.7804357064749</v>
       </c>
       <c r="XY11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="XZ11" s="46"/>
       <c r="YA11" s="41">
@@ -17928,7 +18948,7 @@
         <v>194.35618297229627</v>
       </c>
       <c r="AAK11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AAL11" s="46"/>
       <c r="AAM11" s="41">
@@ -18115,7 +19135,7 @@
         <v>522818.13219547679</v>
       </c>
       <c r="ACW11" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="ACX11" s="46"/>
       <c r="ACY11" s="41">
@@ -20752,10 +21772,10 @@
     </row>
     <row r="13" spans="1:839">
       <c r="A13" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="38">
         <f t="shared" si="0"/>
@@ -20769,10 +21789,10 @@
       <c r="F13" s="25"/>
       <c r="G13" s="39"/>
       <c r="I13" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" s="40"/>
       <c r="L13" s="44">
@@ -21020,7 +22040,7 @@
       </c>
       <c r="CP13" s="47"/>
       <c r="CQ13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CR13" s="44">
         <v>5503.7577716744045</v>
@@ -21207,7 +22227,7 @@
       </c>
       <c r="FC13" s="47"/>
       <c r="FD13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="FE13" s="40"/>
       <c r="FF13" s="44">
@@ -21455,7 +22475,7 @@
       </c>
       <c r="IJ13" s="47"/>
       <c r="IK13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="IL13" s="44">
         <v>5448.7201939576598</v>
@@ -21642,7 +22662,7 @@
       </c>
       <c r="KV13" s="47"/>
       <c r="KW13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="KX13" s="44">
         <v>1002.1051676855697</v>
@@ -21829,7 +22849,7 @@
       </c>
       <c r="NH13" s="47"/>
       <c r="NI13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="NJ13" s="44">
         <v>2374989.2474147999</v>
@@ -22016,7 +23036,7 @@
       </c>
       <c r="PT13" s="47"/>
       <c r="PU13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="PV13" s="44">
         <v>14239.112748677797</v>
@@ -22203,7 +23223,7 @@
       </c>
       <c r="SF13" s="47"/>
       <c r="SG13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="SH13" s="40"/>
       <c r="SI13" s="44">
@@ -22451,7 +23471,7 @@
       </c>
       <c r="VM13" s="47"/>
       <c r="VN13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="VO13" s="44">
         <v>55.037577716744089</v>
@@ -22638,7 +23658,7 @@
       </c>
       <c r="XY13" s="47"/>
       <c r="XZ13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="YA13" s="44">
         <v>9.8274508942391954</v>
@@ -22825,7 +23845,7 @@
       </c>
       <c r="AAK13" s="47"/>
       <c r="AAL13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AAM13" s="44">
         <v>26435.842905503425</v>
@@ -23012,7 +24032,7 @@
       </c>
       <c r="ACW13" s="47"/>
       <c r="ACX13" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="ACY13" s="44">
         <v>9808.7787375401404</v>
@@ -23200,10 +24220,10 @@
     </row>
     <row r="14" spans="1:839">
       <c r="A14" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="38">
         <f t="shared" si="0"/>
@@ -23217,10 +24237,10 @@
       <c r="F14" s="25"/>
       <c r="G14" s="39"/>
       <c r="I14" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K14" s="40"/>
       <c r="L14" s="44">
@@ -23468,7 +24488,7 @@
       </c>
       <c r="CP14" s="47"/>
       <c r="CQ14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CR14" s="44">
         <v>3870.9326233911961</v>
@@ -23655,7 +24675,7 @@
       </c>
       <c r="FC14" s="47"/>
       <c r="FD14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="FE14" s="40"/>
       <c r="FF14" s="44">
@@ -23903,7 +24923,7 @@
       </c>
       <c r="IJ14" s="47"/>
       <c r="IK14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="IL14" s="44">
         <v>3832.2232971572835</v>
@@ -24090,7 +25110,7 @@
       </c>
       <c r="KV14" s="47"/>
       <c r="KW14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="KX14" s="44">
         <v>661.6971476373833</v>
@@ -24277,7 +25297,7 @@
       </c>
       <c r="NH14" s="47"/>
       <c r="NI14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="NJ14" s="44">
         <v>1568222.2399005985</v>
@@ -24464,7 +25484,7 @@
       </c>
       <c r="PT14" s="47"/>
       <c r="PU14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="PV14" s="44">
         <v>9402.1871102091063</v>
@@ -24651,7 +25671,7 @@
       </c>
       <c r="SF14" s="47"/>
       <c r="SG14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="SH14" s="40"/>
       <c r="SI14" s="44">
@@ -24899,7 +25919,7 @@
       </c>
       <c r="VM14" s="47"/>
       <c r="VN14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="VO14" s="44">
         <v>38.709326233911995</v>
@@ -25086,7 +26106,7 @@
       </c>
       <c r="XY14" s="47"/>
       <c r="XZ14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="YA14" s="44">
         <v>6.4891355068881431</v>
@@ -25273,7 +26293,7 @@
       </c>
       <c r="AAK14" s="47"/>
       <c r="AAL14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AAM14" s="44">
         <v>17455.774513529104</v>
@@ -25460,7 +26480,7 @@
       </c>
       <c r="ACW14" s="47"/>
       <c r="ACX14" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="ACY14" s="44">
         <v>6476.806149425056</v>
@@ -25648,10 +26668,10 @@
     </row>
     <row r="15" spans="1:839">
       <c r="A15" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="38">
         <f t="shared" si="0"/>
@@ -25665,10 +26685,10 @@
       <c r="F15" s="25"/>
       <c r="G15" s="39"/>
       <c r="I15" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K15" s="40"/>
       <c r="L15" s="44">
@@ -25916,7 +26936,7 @@
       </c>
       <c r="CP15" s="47"/>
       <c r="CQ15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CR15" s="44">
         <v>2109.7192696782154</v>
@@ -26103,7 +27123,7 @@
       </c>
       <c r="FC15" s="47"/>
       <c r="FD15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="FE15" s="40"/>
       <c r="FF15" s="44">
@@ -26351,7 +27371,7 @@
       </c>
       <c r="IJ15" s="47"/>
       <c r="IK15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="IL15" s="44">
         <v>2088.6220769814331</v>
@@ -26538,7 +27558,7 @@
       </c>
       <c r="KV15" s="47"/>
       <c r="KW15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="KX15" s="44">
         <v>360.06237985153689</v>
@@ -26725,7 +27745,7 @@
       </c>
       <c r="NH15" s="47"/>
       <c r="NI15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="NJ15" s="44">
         <v>853347.84024814237</v>
@@ -26912,7 +27932,7 @@
       </c>
       <c r="PT15" s="47"/>
       <c r="PU15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="PV15" s="44">
         <v>5116.1983677864573</v>
@@ -27099,7 +28119,7 @@
       </c>
       <c r="SF15" s="47"/>
       <c r="SG15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="SH15" s="40"/>
       <c r="SI15" s="44">
@@ -27347,7 +28367,7 @@
       </c>
       <c r="VM15" s="47"/>
       <c r="VN15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="VO15" s="44">
         <v>21.097192696782169</v>
@@ -27534,7 +28554,7 @@
       </c>
       <c r="XY15" s="47"/>
       <c r="XZ15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="YA15" s="44">
         <v>3.5310618794894291</v>
@@ -27721,7 +28741,7 @@
       </c>
       <c r="AAK15" s="47"/>
       <c r="AAL15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AAM15" s="44">
         <v>9498.5564558265651</v>
@@ -27908,7 +28928,7 @@
       </c>
       <c r="ACW15" s="47"/>
       <c r="ACX15" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="ACY15" s="44">
         <v>3524.3528619183999</v>
@@ -28096,7 +29116,7 @@
     </row>
     <row r="16" spans="1:839">
       <c r="A16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="38">
@@ -28111,7 +29131,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="39"/>
       <c r="I16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="40"/>
@@ -28359,7 +29379,7 @@
         <v>255588.68333428685</v>
       </c>
       <c r="CP16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CQ16" s="46"/>
       <c r="CR16" s="41">
@@ -28546,7 +29566,7 @@
         <v>6673.5028869472126</v>
       </c>
       <c r="FC16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FD16" s="46"/>
       <c r="FE16" s="40"/>
@@ -28794,7 +29814,7 @@
         <v>202580.3106174969</v>
       </c>
       <c r="IJ16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="IK16" s="46"/>
       <c r="IL16" s="41">
@@ -28981,7 +30001,7 @@
         <v>4125.2148521491454</v>
       </c>
       <c r="KV16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="KW16" s="46"/>
       <c r="KX16" s="41">
@@ -29168,7 +30188,7 @@
         <v>885.4559369347752</v>
       </c>
       <c r="NH16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="NI16" s="46"/>
       <c r="NJ16" s="41">
@@ -29355,7 +30375,7 @@
         <v>2098530.5705354181</v>
       </c>
       <c r="PT16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="PU16" s="46"/>
       <c r="PV16" s="41">
@@ -29542,7 +30562,7 @@
         <v>12581.620499093613</v>
       </c>
       <c r="SF16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="SG16" s="46"/>
       <c r="SH16" s="40"/>
@@ -29790,7 +30810,7 @@
         <v>97762.370606645709</v>
       </c>
       <c r="VM16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="VN16" s="46"/>
       <c r="VO16" s="41">
@@ -29977,7 +30997,7 @@
         <v>2548.2880347980672</v>
       </c>
       <c r="XY16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="XZ16" s="46"/>
       <c r="YA16" s="41">
@@ -30164,7 +31184,7 @@
         <v>531.32280318129085</v>
       </c>
       <c r="AAK16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AAL16" s="46"/>
       <c r="AAM16" s="41">
@@ -30351,7 +31371,7 @@
         <v>1429258.3405576723</v>
       </c>
       <c r="ACW16" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="ACX16" s="46"/>
       <c r="ACY16" s="41">
@@ -30540,10 +31560,10 @@
     </row>
     <row r="17" spans="1:839">
       <c r="A17" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="38">
         <f t="shared" si="0"/>
@@ -30557,10 +31577,10 @@
       <c r="F17" s="25"/>
       <c r="G17" s="39"/>
       <c r="I17" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K17" s="40"/>
       <c r="L17" s="44">
@@ -30808,7 +31828,7 @@
       </c>
       <c r="CP17" s="47"/>
       <c r="CQ17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CR17" s="44">
         <v>105.5360407940267</v>
@@ -30995,7 +32015,7 @@
       </c>
       <c r="FC17" s="47"/>
       <c r="FD17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="FE17" s="40"/>
       <c r="FF17" s="44">
@@ -31243,7 +32263,7 @@
       </c>
       <c r="IJ17" s="47"/>
       <c r="IK17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="IL17" s="44">
         <v>63.321624476416012</v>
@@ -31430,7 +32450,7 @@
       </c>
       <c r="KV17" s="47"/>
       <c r="KW17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="KX17" s="44">
         <v>20.131317691313726</v>
@@ -31617,7 +32637,7 @@
       </c>
       <c r="NH17" s="47"/>
       <c r="NI17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="NJ17" s="44">
         <v>47711.222928413525</v>
@@ -31804,7 +32824,7 @@
       </c>
       <c r="PT17" s="47"/>
       <c r="PU17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="PV17" s="44">
         <v>286.04991933941494</v>
@@ -31991,7 +33011,7 @@
       </c>
       <c r="SF17" s="47"/>
       <c r="SG17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="SH17" s="40"/>
       <c r="SI17" s="44">
@@ -32239,7 +33259,7 @@
       </c>
       <c r="VM17" s="47"/>
       <c r="VN17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="VO17" s="44">
         <v>42.214416317610699</v>
@@ -32426,7 +33446,7 @@
       </c>
       <c r="XY17" s="47"/>
       <c r="XZ17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="YA17" s="44">
         <v>13.0373310221597</v>
@@ -32613,7 +33633,7 @@
       </c>
       <c r="AAK17" s="47"/>
       <c r="AAL17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AAM17" s="44">
         <v>35070.420449609592</v>
@@ -32800,7 +33820,7 @@
       </c>
       <c r="ACW17" s="47"/>
       <c r="ACX17" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="ACY17" s="44">
         <v>13012.560093217595</v>
@@ -32988,10 +34008,10 @@
     </row>
     <row r="18" spans="1:839">
       <c r="A18" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="38">
         <f t="shared" si="0"/>
@@ -33005,10 +34025,10 @@
       <c r="F18" s="25"/>
       <c r="G18" s="39"/>
       <c r="I18" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" s="40"/>
       <c r="L18" s="44">
@@ -33256,7 +34276,7 @@
       </c>
       <c r="CP18" s="47"/>
       <c r="CQ18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR18" s="44">
         <v>0</v>
@@ -33443,7 +34463,7 @@
       </c>
       <c r="FC18" s="47"/>
       <c r="FD18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="FE18" s="40"/>
       <c r="FF18" s="44">
@@ -33691,7 +34711,7 @@
       </c>
       <c r="IJ18" s="47"/>
       <c r="IK18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="IL18" s="44">
         <v>0</v>
@@ -33878,7 +34898,7 @@
       </c>
       <c r="KV18" s="47"/>
       <c r="KW18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="KX18" s="44">
         <v>0</v>
@@ -34065,7 +35085,7 @@
       </c>
       <c r="NH18" s="47"/>
       <c r="NI18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="NJ18" s="44">
         <v>0</v>
@@ -34252,7 +35272,7 @@
       </c>
       <c r="PT18" s="47"/>
       <c r="PU18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="PV18" s="44">
         <v>0</v>
@@ -34439,7 +35459,7 @@
       </c>
       <c r="SF18" s="47"/>
       <c r="SG18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="SH18" s="40"/>
       <c r="SI18" s="44">
@@ -34687,7 +35707,7 @@
       </c>
       <c r="VM18" s="47"/>
       <c r="VN18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="VO18" s="44">
         <v>0</v>
@@ -34874,7 +35894,7 @@
       </c>
       <c r="XY18" s="47"/>
       <c r="XZ18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="YA18" s="44">
         <v>0</v>
@@ -35061,7 +36081,7 @@
       </c>
       <c r="AAK18" s="47"/>
       <c r="AAL18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AAM18" s="44">
         <v>0</v>
@@ -35248,7 +36268,7 @@
       </c>
       <c r="ACW18" s="47"/>
       <c r="ACX18" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="ACY18" s="44">
         <v>0</v>
@@ -40328,10 +41348,10 @@
     </row>
     <row r="21" spans="1:839">
       <c r="A21" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="38">
         <f t="shared" si="0"/>
@@ -40345,10 +41365,10 @@
       <c r="F21" s="25"/>
       <c r="G21" s="39"/>
       <c r="I21" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K21" s="40"/>
       <c r="L21" s="44">
@@ -40596,7 +41616,7 @@
       </c>
       <c r="CP21" s="47"/>
       <c r="CQ21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CR21" s="44">
         <v>764.19011053661541</v>
@@ -40783,7 +41803,7 @@
       </c>
       <c r="FC21" s="47"/>
       <c r="FD21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="FE21" s="40"/>
       <c r="FF21" s="44">
@@ -41031,7 +42051,7 @@
       </c>
       <c r="IJ21" s="47"/>
       <c r="IK21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="IL21" s="44">
         <v>229.25703316098469</v>
@@ -41218,7 +42238,7 @@
       </c>
       <c r="KV21" s="47"/>
       <c r="KW21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="KX21" s="44">
         <v>96.048188945147274</v>
@@ -41405,7 +42425,7 @@
       </c>
       <c r="NH21" s="47"/>
       <c r="NI21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="NJ21" s="44">
         <v>227634.20779999899</v>
@@ -41592,7 +42612,7 @@
       </c>
       <c r="PT21" s="47"/>
       <c r="PU21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="PV21" s="44">
         <v>1364.7679263593866</v>
@@ -41779,7 +42799,7 @@
       </c>
       <c r="SF21" s="47"/>
       <c r="SG21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="SH21" s="40"/>
       <c r="SI21" s="44">
@@ -42027,7 +43047,7 @@
       </c>
       <c r="VM21" s="47"/>
       <c r="VN21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="VO21" s="44">
         <v>534.93307737563066</v>
@@ -42214,7 +43234,7 @@
       </c>
       <c r="XY21" s="47"/>
       <c r="XZ21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="YA21" s="44">
         <v>212.90681882840971</v>
@@ -42401,7 +43421,7 @@
       </c>
       <c r="AAK21" s="47"/>
       <c r="AAL21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AAM21" s="44">
         <v>572719.34264842223</v>
@@ -42588,7 +43608,7 @@
       </c>
       <c r="ACW21" s="47"/>
       <c r="ACX21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="ACY21" s="44">
         <v>212502.29587263573</v>
@@ -50112,7 +51132,7 @@
     </row>
     <row r="25" spans="1:839">
       <c r="A25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="38">
@@ -50127,7 +51147,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="39"/>
       <c r="I25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J25" s="46"/>
       <c r="K25" s="40"/>
@@ -50375,7 +51395,7 @@
         <v>543670.93867064989</v>
       </c>
       <c r="CP25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CQ25" s="46"/>
       <c r="CR25" s="41">
@@ -50562,7 +51582,7 @@
         <v>17457.923205682564</v>
       </c>
       <c r="FC25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="FD25" s="46"/>
       <c r="FE25" s="40"/>
@@ -50810,7 +51830,7 @@
         <v>397506.46414583939</v>
       </c>
       <c r="IJ25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="IK25" s="46"/>
       <c r="IL25" s="41">
@@ -50997,7 +52017,7 @@
         <v>6416.3233126411542</v>
       </c>
       <c r="KV25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="KW25" s="46"/>
       <c r="KX25" s="41">
@@ -51184,7 +52204,7 @@
         <v>904.56725122493913</v>
       </c>
       <c r="NH25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="NI25" s="46"/>
       <c r="NJ25" s="41">
@@ -51371,7 +52391,7 @@
         <v>2143824.3854031051</v>
       </c>
       <c r="PT25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="PU25" s="46"/>
       <c r="PV25" s="41">
@@ -51558,7 +52578,7 @@
         <v>12853.176986105405</v>
       </c>
       <c r="SF25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="SG25" s="46"/>
       <c r="SH25" s="40"/>
@@ -51806,7 +52826,7 @@
         <v>146164.4745248105</v>
       </c>
       <c r="VM25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="VN25" s="46"/>
       <c r="VO25" s="41">
@@ -51993,7 +53013,7 @@
         <v>11041.599893041408</v>
       </c>
       <c r="XY25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="XZ25" s="46"/>
       <c r="YA25" s="41">
@@ -52180,7 +53200,7 @@
         <v>4974.3818647951666</v>
       </c>
       <c r="AAK25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AAL25" s="46"/>
       <c r="AAM25" s="41">
@@ -52367,7 +53387,7 @@
         <v>13381087.216298996</v>
       </c>
       <c r="ACW25" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="ACX25" s="46"/>
       <c r="ACY25" s="41">
@@ -55004,10 +56024,10 @@
     </row>
     <row r="27" spans="1:839">
       <c r="A27" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="38">
         <f t="shared" si="0"/>
@@ -55021,10 +56041,10 @@
       <c r="F27" s="25"/>
       <c r="G27" s="39"/>
       <c r="I27" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K27" s="40"/>
       <c r="L27" s="44">
@@ -55272,7 +56292,7 @@
       </c>
       <c r="CP27" s="47"/>
       <c r="CQ27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CR27" s="44">
         <v>4834.6593203676894</v>
@@ -55459,7 +56479,7 @@
       </c>
       <c r="FC27" s="47"/>
       <c r="FD27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="FE27" s="40"/>
       <c r="FF27" s="44">
@@ -55707,7 +56727,7 @@
       </c>
       <c r="IJ27" s="47"/>
       <c r="IK27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="IL27" s="44">
         <v>4834.6593203676894</v>
@@ -55894,7 +56914,7 @@
       </c>
       <c r="KV27" s="47"/>
       <c r="KW27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="KX27" s="44">
         <v>3890.3257226066926</v>
@@ -56081,7 +57101,7 @@
       </c>
       <c r="NH27" s="47"/>
       <c r="NI27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="NJ27" s="44">
         <v>9220071.9625778627</v>
@@ -56268,7 +57288,7 @@
       </c>
       <c r="PT27" s="47"/>
       <c r="PU27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="PV27" s="44">
         <v>55278.416257663011</v>
@@ -56455,7 +57475,7 @@
       </c>
       <c r="SF27" s="47"/>
       <c r="SG27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="SH27" s="40"/>
       <c r="SI27" s="44">
@@ -56703,7 +57723,7 @@
       </c>
       <c r="VM27" s="47"/>
       <c r="VN27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="VO27" s="44">
         <v>0</v>
@@ -56890,7 +57910,7 @@
       </c>
       <c r="XY27" s="47"/>
       <c r="XZ27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="YA27" s="44">
         <v>0</v>
@@ -57077,7 +58097,7 @@
       </c>
       <c r="AAK27" s="47"/>
       <c r="AAL27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AAM27" s="44">
         <v>0</v>
@@ -57264,7 +58284,7 @@
       </c>
       <c r="ACW27" s="47"/>
       <c r="ACX27" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="ACY27" s="44">
         <v>0</v>
@@ -57452,10 +58472,10 @@
     </row>
     <row r="28" spans="1:839">
       <c r="A28" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="38">
         <f t="shared" si="0"/>
@@ -57469,10 +58489,10 @@
       <c r="F28" s="25"/>
       <c r="G28" s="39"/>
       <c r="I28" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K28" s="40"/>
       <c r="L28" s="44">
@@ -57720,7 +58740,7 @@
       </c>
       <c r="CP28" s="47"/>
       <c r="CQ28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CR28" s="44">
         <v>766.4931255038756</v>
@@ -57907,7 +58927,7 @@
       </c>
       <c r="FC28" s="47"/>
       <c r="FD28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="FE28" s="40"/>
       <c r="FF28" s="44">
@@ -58155,7 +59175,7 @@
       </c>
       <c r="IJ28" s="47"/>
       <c r="IK28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="IL28" s="44">
         <v>758.82819424883701</v>
@@ -58342,7 +59362,7 @@
       </c>
       <c r="KV28" s="47"/>
       <c r="KW28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="KX28" s="44">
         <v>103.78888306739294</v>
@@ -58529,7 +59549,7 @@
       </c>
       <c r="NH28" s="47"/>
       <c r="NI28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="NJ28" s="44">
         <v>245979.65286972132</v>
@@ -58716,7 +59736,7 @@
       </c>
       <c r="PT28" s="47"/>
       <c r="PU28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="PV28" s="44">
         <v>1474.7569972811998</v>
@@ -58903,7 +59923,7 @@
       </c>
       <c r="SF28" s="47"/>
       <c r="SG28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="SH28" s="40"/>
       <c r="SI28" s="44">
@@ -59151,7 +60171,7 @@
       </c>
       <c r="VM28" s="47"/>
       <c r="VN28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="VO28" s="44">
         <v>7.6649312550387636</v>
@@ -59338,7 +60358,7 @@
       </c>
       <c r="XY28" s="47"/>
       <c r="XZ28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="YA28" s="44">
         <v>0.89604491986007972</v>
@@ -59525,7 +60545,7 @@
       </c>
       <c r="AAK28" s="47"/>
       <c r="AAL28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AAM28" s="44">
         <v>2410.3608344236141</v>
@@ -59712,7 +60732,7 @@
       </c>
       <c r="ACW28" s="47"/>
       <c r="ACX28" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="ACY28" s="44">
         <v>894.34243451234579</v>
@@ -59900,7 +60920,7 @@
     </row>
     <row r="29" spans="1:839">
       <c r="A29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="38">
@@ -59915,7 +60935,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="39"/>
       <c r="I29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J29" s="46"/>
       <c r="K29" s="40"/>
@@ -60163,7 +61183,7 @@
         <v>27189410.025918659</v>
       </c>
       <c r="CP29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CQ29" s="46"/>
       <c r="CR29" s="41">
@@ -60350,7 +61370,7 @@
         <v>313090.65590454265</v>
       </c>
       <c r="FC29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="FD29" s="46"/>
       <c r="FE29" s="40"/>
@@ -60598,7 +61618,7 @@
         <v>26460407.131077357</v>
       </c>
       <c r="IJ29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="IK29" s="46"/>
       <c r="IL29" s="41">
@@ -60785,7 +61805,7 @@
         <v>288654.8554418725</v>
       </c>
       <c r="KV29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="KW29" s="46"/>
       <c r="KX29" s="41">
@@ -60972,7 +61992,7 @@
         <v>32114.266498123288</v>
       </c>
       <c r="NH29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="NI29" s="46"/>
       <c r="NJ29" s="41">
@@ -61159,7 +62179,7 @@
         <v>76110811.600552216</v>
       </c>
       <c r="PT29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="PU29" s="46"/>
       <c r="PV29" s="41">
@@ -61346,7 +62366,7 @@
         <v>456318.03552513348</v>
       </c>
       <c r="SF29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="SG29" s="46"/>
       <c r="SH29" s="40"/>
@@ -61594,7 +62614,7 @@
         <v>729002.89484130254</v>
       </c>
       <c r="VM29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="VN29" s="46"/>
       <c r="VO29" s="41">
@@ -61781,7 +62801,7 @@
         <v>24435.800462670144</v>
       </c>
       <c r="XY29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="XZ29" s="46"/>
       <c r="YA29" s="41">
@@ -61968,7 +62988,7 @@
         <v>6621.6362800412617</v>
       </c>
       <c r="AAK29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AAL29" s="46"/>
       <c r="AAM29" s="41">
@@ -62155,7 +63175,7 @@
         <v>17812201.593310989</v>
       </c>
       <c r="ACW29" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="ACX29" s="46"/>
       <c r="ACY29" s="41">
@@ -69022,7 +70042,7 @@
     </row>
     <row r="33" spans="1:839">
       <c r="A33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="46"/>
       <c r="C33" s="38">
@@ -69037,7 +70057,7 @@
       <c r="F33" s="25"/>
       <c r="G33" s="39"/>
       <c r="I33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J33" s="46"/>
       <c r="K33" s="47"/>
@@ -69285,7 +70305,7 @@
         <v>7061629.8302047672</v>
       </c>
       <c r="CP33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CQ33" s="46"/>
       <c r="CR33" s="41">
@@ -69472,7 +70492,7 @@
         <v>211050.14267706289</v>
       </c>
       <c r="FC33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="FD33" s="46"/>
       <c r="FE33" s="47"/>
@@ -69720,7 +70740,7 @@
         <v>3913718.0940932594</v>
       </c>
       <c r="IJ33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="IK33" s="46"/>
       <c r="IL33" s="41">
@@ -69907,7 +70927,7 @@
         <v>0</v>
       </c>
       <c r="KV33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="KW33" s="46"/>
       <c r="KX33" s="41">
@@ -70094,7 +71114,7 @@
         <v>3544.7015189274739</v>
       </c>
       <c r="NH33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="NI33" s="46"/>
       <c r="NJ33" s="41">
@@ -70281,7 +71301,7 @@
         <v>8400942.5998581164</v>
       </c>
       <c r="PT33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="PU33" s="46"/>
       <c r="PV33" s="41">
@@ -70468,7 +71488,7 @@
         <v>50367.372822744277</v>
       </c>
       <c r="SF33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="SG33" s="46"/>
       <c r="SH33" s="47"/>
@@ -70716,7 +71736,7 @@
         <v>39532.506000942056</v>
       </c>
       <c r="VM33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="VN33" s="46"/>
       <c r="VO33" s="41">
@@ -70903,7 +71923,7 @@
         <v>540.7033261719323</v>
       </c>
       <c r="XY33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="XZ33" s="46"/>
       <c r="YA33" s="41">
@@ -71090,7 +72110,7 @@
         <v>31.826725198002055</v>
       </c>
       <c r="AAK33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AAL33" s="46"/>
       <c r="AAM33" s="41">
@@ -71277,7 +72297,7 @@
         <v>85613.890782625458</v>
       </c>
       <c r="ACW33" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="ACX33" s="46"/>
       <c r="ACY33" s="41">
@@ -71466,10 +72486,10 @@
     </row>
     <row r="34" spans="1:839">
       <c r="A34" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="38">
         <f t="shared" si="0"/>
@@ -71483,10 +72503,10 @@
       <c r="F34" s="25"/>
       <c r="G34" s="39"/>
       <c r="I34" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K34" s="47"/>
       <c r="L34" s="44">
@@ -71734,7 +72754,7 @@
       </c>
       <c r="CP34" s="47"/>
       <c r="CQ34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CR34" s="44">
         <v>0</v>
@@ -71921,7 +72941,7 @@
       </c>
       <c r="FC34" s="47"/>
       <c r="FD34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="FE34" s="47"/>
       <c r="FF34" s="44">
@@ -72169,7 +73189,7 @@
       </c>
       <c r="IJ34" s="47"/>
       <c r="IK34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="IL34" s="44">
         <v>0</v>
@@ -72356,7 +73376,7 @@
       </c>
       <c r="KV34" s="47"/>
       <c r="KW34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="KX34" s="44">
         <v>0</v>
@@ -72543,7 +73563,7 @@
       </c>
       <c r="NH34" s="47"/>
       <c r="NI34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="NJ34" s="44">
         <v>0</v>
@@ -72730,7 +73750,7 @@
       </c>
       <c r="PT34" s="47"/>
       <c r="PU34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="PV34" s="44">
         <v>0</v>
@@ -72917,7 +73937,7 @@
       </c>
       <c r="SF34" s="47"/>
       <c r="SG34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="SH34" s="47"/>
       <c r="SI34" s="44">
@@ -73165,7 +74185,7 @@
       </c>
       <c r="VM34" s="47"/>
       <c r="VN34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="VO34" s="44">
         <v>0</v>
@@ -73352,7 +74372,7 @@
       </c>
       <c r="XY34" s="47"/>
       <c r="XZ34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="YA34" s="44">
         <v>0</v>
@@ -73539,7 +74559,7 @@
       </c>
       <c r="AAK34" s="47"/>
       <c r="AAL34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AAM34" s="44">
         <v>0</v>
@@ -73726,7 +74746,7 @@
       </c>
       <c r="ACW34" s="47"/>
       <c r="ACX34" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="ACY34" s="44">
         <v>0</v>
@@ -73914,10 +74934,10 @@
     </row>
     <row r="35" spans="1:839">
       <c r="A35" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="38">
         <f t="shared" si="0"/>
@@ -73931,10 +74951,10 @@
       <c r="F35" s="25"/>
       <c r="G35" s="39"/>
       <c r="I35" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K35" s="47"/>
       <c r="L35" s="44">
@@ -74182,7 +75202,7 @@
       </c>
       <c r="CP35" s="47"/>
       <c r="CQ35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CR35" s="44">
         <v>0</v>
@@ -74369,7 +75389,7 @@
       </c>
       <c r="FC35" s="47"/>
       <c r="FD35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="FE35" s="47"/>
       <c r="FF35" s="44"/>
@@ -74455,7 +75475,7 @@
       <c r="IH35" s="44"/>
       <c r="IJ35" s="47"/>
       <c r="IK35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="IL35" s="44">
         <v>0</v>
@@ -74642,7 +75662,7 @@
       </c>
       <c r="KV35" s="47"/>
       <c r="KW35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="KX35" s="44">
         <v>0</v>
@@ -74829,7 +75849,7 @@
       </c>
       <c r="NH35" s="47"/>
       <c r="NI35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="NJ35" s="44">
         <v>0</v>
@@ -75016,7 +76036,7 @@
       </c>
       <c r="PT35" s="47"/>
       <c r="PU35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="PV35" s="44">
         <v>0</v>
@@ -75203,7 +76223,7 @@
       </c>
       <c r="SF35" s="47"/>
       <c r="SG35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="SH35" s="47"/>
       <c r="SI35" s="44"/>
@@ -75289,7 +76309,7 @@
       <c r="VK35" s="44"/>
       <c r="VM35" s="47"/>
       <c r="VN35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="VO35" s="44">
         <v>0</v>
@@ -75476,7 +76496,7 @@
       </c>
       <c r="XY35" s="47"/>
       <c r="XZ35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="YA35" s="44">
         <v>0</v>
@@ -75663,7 +76683,7 @@
       </c>
       <c r="AAK35" s="47"/>
       <c r="AAL35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AAM35" s="44">
         <v>0</v>
@@ -75850,7 +76870,7 @@
       </c>
       <c r="ACW35" s="47"/>
       <c r="ACX35" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="ACY35" s="44">
         <v>0</v>
@@ -76038,10 +77058,10 @@
     </row>
     <row r="36" spans="1:839">
       <c r="A36" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="38">
         <f t="shared" si="0"/>
@@ -76055,10 +77075,10 @@
       <c r="F36" s="25"/>
       <c r="G36" s="39"/>
       <c r="I36" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K36" s="47"/>
       <c r="L36" s="44">
@@ -76306,7 +77326,7 @@
       </c>
       <c r="CP36" s="47"/>
       <c r="CQ36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="CR36" s="44">
         <v>0</v>
@@ -76493,7 +77513,7 @@
       </c>
       <c r="FC36" s="47"/>
       <c r="FD36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="FE36" s="47"/>
       <c r="FF36" s="44"/>
@@ -76579,7 +77599,7 @@
       <c r="IH36" s="44"/>
       <c r="IJ36" s="47"/>
       <c r="IK36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="IL36" s="44">
         <v>0</v>
@@ -76766,7 +77786,7 @@
       </c>
       <c r="KV36" s="47"/>
       <c r="KW36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="KX36" s="44">
         <v>0</v>
@@ -76953,7 +77973,7 @@
       </c>
       <c r="NH36" s="47"/>
       <c r="NI36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="NJ36" s="44">
         <v>0</v>
@@ -77140,7 +78160,7 @@
       </c>
       <c r="PT36" s="47"/>
       <c r="PU36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="PV36" s="44">
         <v>0</v>
@@ -77327,7 +78347,7 @@
       </c>
       <c r="SF36" s="47"/>
       <c r="SG36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="SH36" s="47"/>
       <c r="SI36" s="44"/>
@@ -77413,7 +78433,7 @@
       <c r="VK36" s="44"/>
       <c r="VM36" s="47"/>
       <c r="VN36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="VO36" s="44">
         <v>0</v>
@@ -77600,7 +78620,7 @@
       </c>
       <c r="XY36" s="47"/>
       <c r="XZ36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="YA36" s="44">
         <v>0</v>
@@ -77787,7 +78807,7 @@
       </c>
       <c r="AAK36" s="47"/>
       <c r="AAL36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AAM36" s="44">
         <v>0</v>
@@ -77974,7 +78994,7 @@
       </c>
       <c r="ACW36" s="47"/>
       <c r="ACX36" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="ACY36" s="44">
         <v>0</v>
@@ -78164,7 +79184,7 @@
       <c r="F37" s="25"/>
       <c r="G37" s="39"/>
       <c r="K37" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L37" s="41">
         <v>17323</v>
@@ -78593,7 +79613,7 @@
         <v>1128193.4688130647</v>
       </c>
       <c r="FE37" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="FF37" s="41">
         <v>11685.28261788111</v>
@@ -79571,7 +80591,7 @@
         <v>1138757.9543674449</v>
       </c>
       <c r="SH37" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="SI37" s="41">
         <v>5637.7173821188899</v>
@@ -80562,55 +81582,55 @@
       <c r="F38" s="25"/>
       <c r="G38" s="39"/>
       <c r="CQ38" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="IK38" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="IK38" s="11" t="s">
+      <c r="KW38" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="KW38" s="11" t="s">
+      <c r="NI38" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="NI38" s="11" t="s">
-        <v>141</v>
-      </c>
       <c r="PU38" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="UC38" s="49"/>
       <c r="VN38" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="XZ38" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="XZ38" s="11" t="s">
+      <c r="AAL38" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AAL38" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="ACX38" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:839" ht="28.5" customHeight="1">
-      <c r="A40" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="81"/>
+      <c r="A40" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="108"/>
       <c r="C40" s="75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="75"/>
       <c r="E40" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="I40" s="86" t="s">
-        <v>170</v>
-      </c>
-      <c r="J40" s="87"/>
+        <v>145</v>
+      </c>
+      <c r="I40" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="114"/>
       <c r="K40" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L40" s="76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M40" s="12"/>
     </row>
@@ -80619,7 +81639,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C41" s="15">
         <f>C7+C12+C28+C30</f>
@@ -80634,7 +81654,7 @@
         <v>23</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K41" s="77">
         <f>((DS7+DS12+DS28+DS30)*10^6)/(C41+E41)</f>
@@ -80651,7 +81671,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="15">
         <f>C26+C27</f>
@@ -80666,7 +81686,7 @@
         <v>24</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K42" s="77">
         <f>((DS26+DS27)*10^6)/(C42+E42)</f>
@@ -80680,10 +81700,10 @@
     </row>
     <row r="43" spans="1:839">
       <c r="A43" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" s="15">
         <f>C24</f>
@@ -80695,10 +81715,10 @@
         <v>0</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K43" s="77">
         <f>(DS24*10^6)/C43</f>
@@ -80715,7 +81735,7 @@
         <v>23</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="15">
         <f>C13+C14+C15+C17+C18+C19+C31</f>
@@ -80730,7 +81750,7 @@
         <v>23</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K44" s="77">
         <f>((DS13+DS14+DS15+DS17+DS18+DS19+DS31)*10^6)/(C44+E44)</f>
@@ -80747,7 +81767,7 @@
         <v>24</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="15">
         <f>C20+C22+C32</f>
@@ -80762,7 +81782,7 @@
         <v>24</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K45" s="77">
         <f>((DS20+DS22+DS32)*10^6)/(C45+E45)</f>
@@ -80786,16 +81806,16 @@
     </row>
     <row r="51" spans="9:21">
       <c r="I51" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="9:21">
       <c r="I52" s="50"/>
       <c r="J52" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="K52" s="52" t="s">
         <v>151</v>
-      </c>
-      <c r="K52" s="52" t="s">
-        <v>152</v>
       </c>
       <c r="L52" s="53"/>
       <c r="M52" s="50"/>
@@ -80811,10 +81831,10 @@
     <row r="53" spans="9:21">
       <c r="I53" s="50"/>
       <c r="J53" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="K53" s="55" t="s">
         <v>153</v>
-      </c>
-      <c r="K53" s="55" t="s">
-        <v>154</v>
       </c>
       <c r="L53" s="53"/>
       <c r="M53" s="50"/>
@@ -80830,13 +81850,13 @@
     <row r="54" spans="9:21">
       <c r="I54" s="50"/>
       <c r="J54" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="K54" s="52" t="s">
+      <c r="L54" s="52" t="s">
         <v>156</v>
-      </c>
-      <c r="L54" s="52" t="s">
-        <v>157</v>
       </c>
       <c r="M54" s="50"/>
       <c r="N54" s="50"/>
@@ -80851,13 +81871,13 @@
     <row r="55" spans="9:21">
       <c r="I55" s="50"/>
       <c r="J55" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="K55" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="K55" s="55" t="s">
+      <c r="L55" s="55" t="s">
         <v>159</v>
-      </c>
-      <c r="L55" s="55" t="s">
-        <v>160</v>
       </c>
       <c r="M55" s="50"/>
       <c r="N55" s="50"/>
@@ -80918,8 +81938,8 @@
       <c r="U57" s="50"/>
     </row>
     <row r="58" spans="9:21">
-      <c r="I58" s="82" t="s">
-        <v>161</v>
+      <c r="I58" s="109" t="s">
+        <v>160</v>
       </c>
       <c r="J58" s="60" t="s">
         <v>12</v>
@@ -80955,9 +81975,9 @@
       <c r="U58" s="50"/>
     </row>
     <row r="59" spans="9:21">
-      <c r="I59" s="82"/>
+      <c r="I59" s="109"/>
       <c r="J59" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K59" s="60"/>
       <c r="L59" s="61">
@@ -80990,9 +82010,9 @@
       <c r="U59" s="50"/>
     </row>
     <row r="60" spans="9:21">
-      <c r="I60" s="82"/>
+      <c r="I60" s="109"/>
       <c r="J60" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K60" s="60"/>
       <c r="L60" s="61">
@@ -81025,7 +82045,7 @@
       <c r="U60" s="50"/>
     </row>
     <row r="61" spans="9:21">
-      <c r="I61" s="82"/>
+      <c r="I61" s="109"/>
       <c r="J61" s="60" t="s">
         <v>13</v>
       </c>
@@ -81060,7 +82080,7 @@
       <c r="U61" s="50"/>
     </row>
     <row r="62" spans="9:21">
-      <c r="I62" s="82"/>
+      <c r="I62" s="109"/>
       <c r="J62" s="60" t="s">
         <v>14</v>
       </c>
@@ -81095,7 +82115,7 @@
       <c r="U62" s="50"/>
     </row>
     <row r="63" spans="9:21">
-      <c r="I63" s="82"/>
+      <c r="I63" s="109"/>
       <c r="J63" s="60" t="s">
         <v>18</v>
       </c>
@@ -81130,9 +82150,9 @@
       <c r="U63" s="50"/>
     </row>
     <row r="64" spans="9:21">
-      <c r="I64" s="82"/>
+      <c r="I64" s="109"/>
       <c r="J64" s="60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K64" s="60"/>
       <c r="L64" s="61">
@@ -81165,9 +82185,9 @@
       <c r="U64" s="50"/>
     </row>
     <row r="65" spans="9:21">
-      <c r="I65" s="82"/>
+      <c r="I65" s="109"/>
       <c r="J65" s="60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K65" s="60"/>
       <c r="L65" s="61">
@@ -81200,9 +82220,9 @@
       <c r="U65" s="50"/>
     </row>
     <row r="66" spans="9:21">
-      <c r="I66" s="82"/>
+      <c r="I66" s="109"/>
       <c r="J66" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K66" s="60"/>
       <c r="L66" s="61">
@@ -81235,9 +82255,9 @@
       <c r="U66" s="50"/>
     </row>
     <row r="67" spans="9:21">
-      <c r="I67" s="82"/>
+      <c r="I67" s="109"/>
       <c r="J67" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K67" s="62"/>
       <c r="L67" s="63">
@@ -81272,8 +82292,8 @@
       </c>
     </row>
     <row r="68" spans="9:21">
-      <c r="I68" s="82" t="s">
-        <v>162</v>
+      <c r="I68" s="109" t="s">
+        <v>161</v>
       </c>
       <c r="J68" s="60" t="s">
         <v>12</v>
@@ -81311,9 +82331,9 @@
       </c>
     </row>
     <row r="69" spans="9:21">
-      <c r="I69" s="82"/>
+      <c r="I69" s="109"/>
       <c r="J69" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K69" s="60"/>
       <c r="L69" s="61">
@@ -81348,9 +82368,9 @@
       </c>
     </row>
     <row r="70" spans="9:21">
-      <c r="I70" s="82"/>
+      <c r="I70" s="109"/>
       <c r="J70" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K70" s="60"/>
       <c r="L70" s="61">
@@ -81383,7 +82403,7 @@
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="9:21">
-      <c r="I71" s="82"/>
+      <c r="I71" s="109"/>
       <c r="J71" s="60" t="s">
         <v>13</v>
       </c>
@@ -81418,7 +82438,7 @@
       <c r="U71" s="50"/>
     </row>
     <row r="72" spans="9:21">
-      <c r="I72" s="82"/>
+      <c r="I72" s="109"/>
       <c r="J72" s="60" t="s">
         <v>14</v>
       </c>
@@ -81453,7 +82473,7 @@
       <c r="U72" s="50"/>
     </row>
     <row r="73" spans="9:21">
-      <c r="I73" s="82"/>
+      <c r="I73" s="109"/>
       <c r="J73" s="60" t="s">
         <v>18</v>
       </c>
@@ -81488,9 +82508,9 @@
       <c r="U73" s="50"/>
     </row>
     <row r="74" spans="9:21">
-      <c r="I74" s="82"/>
+      <c r="I74" s="109"/>
       <c r="J74" s="60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K74" s="60"/>
       <c r="L74" s="61">
@@ -81523,9 +82543,9 @@
       <c r="U74" s="50"/>
     </row>
     <row r="75" spans="9:21">
-      <c r="I75" s="82"/>
+      <c r="I75" s="109"/>
       <c r="J75" s="60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K75" s="60"/>
       <c r="L75" s="61">
@@ -81558,9 +82578,9 @@
       <c r="U75" s="50"/>
     </row>
     <row r="76" spans="9:21">
-      <c r="I76" s="82"/>
+      <c r="I76" s="109"/>
       <c r="J76" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K76" s="60"/>
       <c r="L76" s="61">
@@ -81593,9 +82613,9 @@
       <c r="U76" s="50"/>
     </row>
     <row r="77" spans="9:21">
-      <c r="I77" s="82"/>
+      <c r="I77" s="109"/>
       <c r="J77" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K77" s="62"/>
       <c r="L77" s="63">
@@ -81630,11 +82650,11 @@
       </c>
     </row>
     <row r="78" spans="9:21">
-      <c r="I78" s="82" t="s">
-        <v>163</v>
+      <c r="I78" s="109" t="s">
+        <v>162</v>
       </c>
       <c r="J78" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K78" s="60"/>
       <c r="L78" s="61">
@@ -81669,9 +82689,9 @@
       </c>
     </row>
     <row r="79" spans="9:21">
-      <c r="I79" s="82"/>
+      <c r="I79" s="109"/>
       <c r="J79" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K79" s="60"/>
       <c r="L79" s="61">
@@ -81706,11 +82726,11 @@
       </c>
     </row>
     <row r="80" spans="9:21">
-      <c r="I80" s="83" t="s">
-        <v>137</v>
+      <c r="I80" s="110" t="s">
+        <v>136</v>
       </c>
       <c r="J80" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K80" s="62"/>
       <c r="L80" s="63">
@@ -81745,7 +82765,7 @@
       </c>
     </row>
     <row r="81" spans="9:21">
-      <c r="I81" s="84"/>
+      <c r="I81" s="111"/>
       <c r="J81" s="60" t="s">
         <v>12</v>
       </c>
@@ -81782,9 +82802,9 @@
       <c r="U81" s="50"/>
     </row>
     <row r="82" spans="9:21">
-      <c r="I82" s="84"/>
+      <c r="I82" s="111"/>
       <c r="J82" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K82" s="67">
         <v>1</v>
@@ -81819,9 +82839,9 @@
       <c r="U82" s="50"/>
     </row>
     <row r="83" spans="9:21">
-      <c r="I83" s="84"/>
+      <c r="I83" s="111"/>
       <c r="J83" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K83" s="67">
         <v>1</v>
@@ -81856,7 +82876,7 @@
       <c r="U83" s="50"/>
     </row>
     <row r="84" spans="9:21">
-      <c r="I84" s="84"/>
+      <c r="I84" s="111"/>
       <c r="J84" s="60" t="s">
         <v>13</v>
       </c>
@@ -81893,7 +82913,7 @@
       <c r="U84" s="50"/>
     </row>
     <row r="85" spans="9:21">
-      <c r="I85" s="84"/>
+      <c r="I85" s="111"/>
       <c r="J85" s="60" t="s">
         <v>14</v>
       </c>
@@ -81930,7 +82950,7 @@
       <c r="U85" s="50"/>
     </row>
     <row r="86" spans="9:21">
-      <c r="I86" s="84"/>
+      <c r="I86" s="111"/>
       <c r="J86" s="60" t="s">
         <v>18</v>
       </c>
@@ -81967,9 +82987,9 @@
       <c r="U86" s="50"/>
     </row>
     <row r="87" spans="9:21">
-      <c r="I87" s="84"/>
+      <c r="I87" s="111"/>
       <c r="J87" s="60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K87" s="67">
         <v>1</v>
@@ -82004,9 +83024,9 @@
       <c r="U87" s="50"/>
     </row>
     <row r="88" spans="9:21">
-      <c r="I88" s="84"/>
+      <c r="I88" s="111"/>
       <c r="J88" s="60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K88" s="67">
         <v>1</v>
@@ -82041,9 +83061,9 @@
       <c r="U88" s="50"/>
     </row>
     <row r="89" spans="9:21">
-      <c r="I89" s="84"/>
+      <c r="I89" s="111"/>
       <c r="J89" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K89" s="67">
         <v>1</v>
@@ -82077,10 +83097,10 @@
       </c>
       <c r="U89" s="50"/>
     </row>
-    <row r="90" spans="9:21" ht="23.25">
-      <c r="I90" s="84"/>
+    <row r="90" spans="9:21" ht="23">
+      <c r="I90" s="111"/>
       <c r="J90" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K90" s="69"/>
       <c r="L90" s="70">
@@ -82112,10 +83132,10 @@
       </c>
       <c r="U90" s="50"/>
     </row>
-    <row r="91" spans="9:21" ht="23.25">
-      <c r="I91" s="84"/>
+    <row r="91" spans="9:21" ht="23">
+      <c r="I91" s="111"/>
       <c r="J91" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K91" s="69"/>
       <c r="L91" s="70">
@@ -82147,10 +83167,10 @@
       </c>
       <c r="U91" s="50"/>
     </row>
-    <row r="92" spans="9:21" ht="23.25">
-      <c r="I92" s="84"/>
+    <row r="92" spans="9:21">
+      <c r="I92" s="111"/>
       <c r="J92" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K92" s="71"/>
       <c r="L92" s="72">
@@ -82182,10 +83202,10 @@
       </c>
       <c r="U92" s="50"/>
     </row>
-    <row r="93" spans="9:21" ht="23.25">
-      <c r="I93" s="85"/>
+    <row r="93" spans="9:21">
+      <c r="I93" s="112"/>
       <c r="J93" s="62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K93" s="73"/>
       <c r="L93" s="72">
@@ -82219,6 +83239,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="I58:I67"/>
+    <mergeCell ref="I68:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I80:I93"/>
+    <mergeCell ref="I40:J40"/>
     <mergeCell ref="ACV4:AFG4"/>
     <mergeCell ref="H4:CN4"/>
     <mergeCell ref="CO4:EZ4"/>
@@ -82231,28 +83257,22 @@
     <mergeCell ref="VL4:XW4"/>
     <mergeCell ref="XX4:AAI4"/>
     <mergeCell ref="AAJ4:ACU4"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="I58:I67"/>
-    <mergeCell ref="I68:I77"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="I80:I93"/>
-    <mergeCell ref="I40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.5703125" customWidth="1"/>
+    <col min="1" max="1" width="73.5" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="103.42578125" customWidth="1"/>
+    <col min="3" max="3" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -82551,17 +83571,1994 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:S75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" s="124" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="121" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="119" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+    </row>
+    <row r="5" spans="1:19" ht="28">
+      <c r="A5" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="83"/>
+      <c r="I5" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+    </row>
+    <row r="6" spans="1:19" ht="32">
+      <c r="A6" s="120"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="M6" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="O6" s="84" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="28">
+      <c r="A7" s="97">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98">
+        <f>MAX(C8:C19)</f>
+        <v>226</v>
+      </c>
+      <c r="D7" s="98">
+        <f>MAX(D8:D19)</f>
+        <v>280</v>
+      </c>
+      <c r="E7" s="98">
+        <f>SUM(E8:E19)*1000</f>
+        <v>42620362.229999989</v>
+      </c>
+      <c r="F7" s="98">
+        <f>SUM(F8:F19)*1000</f>
+        <v>52674875.961883999</v>
+      </c>
+      <c r="G7" s="98">
+        <f>SUM(G8:G19)*1000</f>
+        <v>1169544759</v>
+      </c>
+      <c r="H7" s="83"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="N7" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="O7" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="R7" s="100"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="119"/>
+      <c r="C8" s="85">
+        <v>226</v>
+      </c>
+      <c r="D8" s="85">
+        <v>275</v>
+      </c>
+      <c r="E8" s="102">
+        <v>3531.2648661766625</v>
+      </c>
+      <c r="F8" s="85">
+        <v>4134.2138387100003</v>
+      </c>
+      <c r="G8" s="85">
+        <v>97830.216</v>
+      </c>
+      <c r="H8" s="83"/>
+      <c r="I8" s="97">
+        <v>2016</v>
+      </c>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98">
+        <f>MAX(K9:K20)</f>
+        <v>25</v>
+      </c>
+      <c r="L8" s="98">
+        <f>MAX(L9:L20)</f>
+        <v>20</v>
+      </c>
+      <c r="M8" s="98">
+        <f>SUM(M9:M20)*1000</f>
+        <v>2105375</v>
+      </c>
+      <c r="N8" s="98">
+        <f>SUM(N9:N20)*1000</f>
+        <v>35062394</v>
+      </c>
+      <c r="O8" s="98">
+        <f>SUM(O9:O20)*1000</f>
+        <v>64480687</v>
+      </c>
+      <c r="R8" s="100"/>
+      <c r="S8" s="101"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="119"/>
+      <c r="C9" s="85">
+        <v>226</v>
+      </c>
+      <c r="D9" s="85">
+        <v>273</v>
+      </c>
+      <c r="E9" s="102">
+        <v>3584.4798595107832</v>
+      </c>
+      <c r="F9" s="85">
+        <v>4471.7182758620002</v>
+      </c>
+      <c r="G9" s="85">
+        <v>92449.615000000005</v>
+      </c>
+      <c r="H9" s="83"/>
+      <c r="I9" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" s="119"/>
+      <c r="K9" s="85">
+        <v>25</v>
+      </c>
+      <c r="L9" s="85">
+        <v>20</v>
+      </c>
+      <c r="M9" s="85">
+        <v>167.20400000000001</v>
+      </c>
+      <c r="N9" s="85">
+        <v>2395.2289999999998</v>
+      </c>
+      <c r="O9" s="85">
+        <v>9388</v>
+      </c>
+      <c r="R9" s="100"/>
+      <c r="S9" s="101"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="119"/>
+      <c r="C10" s="85">
+        <v>226</v>
+      </c>
+      <c r="D10" s="85">
+        <v>277</v>
+      </c>
+      <c r="E10" s="102">
+        <v>3496.2561370136509</v>
+      </c>
+      <c r="F10" s="85">
+        <v>3857.0301935480002</v>
+      </c>
+      <c r="G10" s="85">
+        <v>97345.934999999998</v>
+      </c>
+      <c r="H10" s="83"/>
+      <c r="I10" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="119"/>
+      <c r="K10" s="85">
+        <v>25</v>
+      </c>
+      <c r="L10" s="85">
+        <v>20</v>
+      </c>
+      <c r="M10" s="85">
+        <v>170.34899999999999</v>
+      </c>
+      <c r="N10" s="85">
+        <v>2790.1260000000002</v>
+      </c>
+      <c r="O10" s="85">
+        <v>6374.4</v>
+      </c>
+      <c r="R10" s="100"/>
+      <c r="S10" s="101"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="85">
+        <v>226</v>
+      </c>
+      <c r="D11" s="85">
+        <v>278</v>
+      </c>
+      <c r="E11" s="102">
+        <v>3576.9758110528278</v>
+      </c>
+      <c r="F11" s="85">
+        <v>4582.4188666669997</v>
+      </c>
+      <c r="G11" s="85">
+        <v>96357.847999999998</v>
+      </c>
+      <c r="H11" s="83"/>
+      <c r="I11" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="119"/>
+      <c r="K11" s="85">
+        <v>25</v>
+      </c>
+      <c r="L11" s="85">
+        <v>20</v>
+      </c>
+      <c r="M11" s="85">
+        <v>178.303</v>
+      </c>
+      <c r="N11" s="85">
+        <v>2581.1030000000001</v>
+      </c>
+      <c r="O11" s="85">
+        <v>7469.6</v>
+      </c>
+      <c r="R11" s="100"/>
+      <c r="S11" s="101"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="85">
+        <v>226</v>
+      </c>
+      <c r="D12" s="85">
+        <v>280</v>
+      </c>
+      <c r="E12" s="102">
+        <v>3559.7155424904663</v>
+      </c>
+      <c r="F12" s="85">
+        <v>4423.6271935479999</v>
+      </c>
+      <c r="G12" s="85">
+        <v>99297.52</v>
+      </c>
+      <c r="H12" s="83"/>
+      <c r="I12" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="119"/>
+      <c r="K12" s="85">
+        <v>25</v>
+      </c>
+      <c r="L12" s="85">
+        <v>20</v>
+      </c>
+      <c r="M12" s="85">
+        <v>175.03800000000001</v>
+      </c>
+      <c r="N12" s="85">
+        <v>3738.9859999999999</v>
+      </c>
+      <c r="O12" s="85">
+        <v>0</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="85">
+        <v>226</v>
+      </c>
+      <c r="D13" s="85">
+        <v>280</v>
+      </c>
+      <c r="E13" s="102">
+        <v>3592.4546328492397</v>
+      </c>
+      <c r="F13" s="85">
+        <v>4513.7870333330002</v>
+      </c>
+      <c r="G13" s="85">
+        <v>96849.358999999997</v>
+      </c>
+      <c r="H13" s="83"/>
+      <c r="I13" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="119"/>
+      <c r="K13" s="85">
+        <v>25</v>
+      </c>
+      <c r="L13" s="85">
+        <v>20</v>
+      </c>
+      <c r="M13" s="85">
+        <v>182.131</v>
+      </c>
+      <c r="N13" s="85">
+        <v>3773.3130000000001</v>
+      </c>
+      <c r="O13" s="85">
+        <v>0</v>
+      </c>
+      <c r="R13" s="100"/>
+      <c r="S13" s="101"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="85">
+        <v>226</v>
+      </c>
+      <c r="D14" s="85">
+        <v>279</v>
+      </c>
+      <c r="E14" s="102">
+        <v>3544.7119338580969</v>
+      </c>
+      <c r="F14" s="85">
+        <v>4097.9018064519996</v>
+      </c>
+      <c r="G14" s="85">
+        <v>98806.009000000005</v>
+      </c>
+      <c r="H14" s="83"/>
+      <c r="I14" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="119"/>
+      <c r="K14" s="85">
+        <v>25</v>
+      </c>
+      <c r="L14" s="85">
+        <v>20</v>
+      </c>
+      <c r="M14" s="85">
+        <v>178.06200000000001</v>
+      </c>
+      <c r="N14" s="85">
+        <v>3660.346</v>
+      </c>
+      <c r="O14" s="85">
+        <v>0</v>
+      </c>
+      <c r="R14" s="100"/>
+      <c r="S14" s="101"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="85">
+        <v>226</v>
+      </c>
+      <c r="D15" s="85">
+        <v>277</v>
+      </c>
+      <c r="E15" s="102">
+        <v>3563.9531534099251</v>
+      </c>
+      <c r="F15" s="85">
+        <v>4574.2796774190001</v>
+      </c>
+      <c r="G15" s="85">
+        <v>100273.31200000001</v>
+      </c>
+      <c r="H15" s="83"/>
+      <c r="I15" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="119"/>
+      <c r="K15" s="85">
+        <v>25</v>
+      </c>
+      <c r="L15" s="85">
+        <v>20</v>
+      </c>
+      <c r="M15" s="85">
+        <v>187.256</v>
+      </c>
+      <c r="N15" s="85">
+        <v>2551.433</v>
+      </c>
+      <c r="O15" s="85">
+        <v>4393.1869999999999</v>
+      </c>
+      <c r="R15" s="100"/>
+      <c r="S15" s="101"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="119"/>
+      <c r="C16" s="85">
+        <v>226</v>
+      </c>
+      <c r="D16" s="85">
+        <v>278</v>
+      </c>
+      <c r="E16" s="102">
+        <v>3526.0895915424394</v>
+      </c>
+      <c r="F16" s="85">
+        <v>4480.6017666670004</v>
+      </c>
+      <c r="G16" s="85">
+        <v>95873.567999999999</v>
+      </c>
+      <c r="H16" s="83"/>
+      <c r="I16" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="119"/>
+      <c r="K16" s="85">
+        <v>25</v>
+      </c>
+      <c r="L16" s="85">
+        <v>20</v>
+      </c>
+      <c r="M16" s="85">
+        <v>183.27</v>
+      </c>
+      <c r="N16" s="85">
+        <v>2949.136</v>
+      </c>
+      <c r="O16" s="85">
+        <v>6842.4</v>
+      </c>
+      <c r="R16" s="100"/>
+      <c r="S16" s="101"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="119" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="119"/>
+      <c r="C17" s="85">
+        <v>226</v>
+      </c>
+      <c r="D17" s="85">
+        <v>278</v>
+      </c>
+      <c r="E17" s="102">
+        <v>3532.7444608008709</v>
+      </c>
+      <c r="F17" s="85">
+        <v>4600.748903226</v>
+      </c>
+      <c r="G17" s="85">
+        <v>98806.008000000002</v>
+      </c>
+      <c r="H17" s="83"/>
+      <c r="I17" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="119"/>
+      <c r="K17" s="85">
+        <v>25</v>
+      </c>
+      <c r="L17" s="85">
+        <v>20</v>
+      </c>
+      <c r="M17" s="85">
+        <v>166.989</v>
+      </c>
+      <c r="N17" s="85">
+        <v>2493.44</v>
+      </c>
+      <c r="O17" s="85">
+        <v>7901.9</v>
+      </c>
+      <c r="R17" s="100"/>
+      <c r="S17" s="101"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="119"/>
+      <c r="C18" s="85">
+        <v>226</v>
+      </c>
+      <c r="D18" s="85">
+        <v>276</v>
+      </c>
+      <c r="E18" s="102">
+        <v>3524.0098463837071</v>
+      </c>
+      <c r="F18" s="85">
+        <v>4552.7586000000001</v>
+      </c>
+      <c r="G18" s="85">
+        <v>95873.567999999999</v>
+      </c>
+      <c r="H18" s="83"/>
+      <c r="I18" s="119" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" s="119"/>
+      <c r="K18" s="85">
+        <v>25</v>
+      </c>
+      <c r="L18" s="85">
+        <v>20</v>
+      </c>
+      <c r="M18" s="85">
+        <v>179.79599999999999</v>
+      </c>
+      <c r="N18" s="85">
+        <v>2946.6979999999999</v>
+      </c>
+      <c r="O18" s="85">
+        <v>6728.2</v>
+      </c>
+      <c r="R18" s="100"/>
+      <c r="S18" s="101"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="119"/>
+      <c r="C19" s="85">
+        <v>226</v>
+      </c>
+      <c r="D19" s="85">
+        <v>276</v>
+      </c>
+      <c r="E19" s="102">
+        <v>3587.7063949113208</v>
+      </c>
+      <c r="F19" s="85">
+        <v>4385.7898064520004</v>
+      </c>
+      <c r="G19" s="85">
+        <v>99781.801000000007</v>
+      </c>
+      <c r="H19" s="83"/>
+      <c r="I19" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" s="119"/>
+      <c r="K19" s="85">
+        <v>25</v>
+      </c>
+      <c r="L19" s="85">
+        <v>20</v>
+      </c>
+      <c r="M19" s="85">
+        <v>170.64599999999999</v>
+      </c>
+      <c r="N19" s="85">
+        <v>2819.2449999999999</v>
+      </c>
+      <c r="O19" s="85">
+        <v>7813.2</v>
+      </c>
+      <c r="R19" s="100"/>
+      <c r="S19" s="101"/>
+    </row>
+    <row r="20" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A20" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="119"/>
+      <c r="K20" s="85">
+        <v>25</v>
+      </c>
+      <c r="L20" s="85">
+        <v>20</v>
+      </c>
+      <c r="M20" s="85">
+        <v>166.33099999999999</v>
+      </c>
+      <c r="N20" s="85">
+        <v>2363.3389999999999</v>
+      </c>
+      <c r="O20" s="85">
+        <v>7569.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="123" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+    </row>
+    <row r="22" spans="1:19" ht="58.5" customHeight="1">
+      <c r="A22" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+    </row>
+    <row r="23" spans="1:19" ht="19.5" customHeight="1">
+      <c r="A23" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+    </row>
+    <row r="24" spans="1:19" ht="54.75" customHeight="1">
+      <c r="A24" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+    </row>
+    <row r="25" spans="1:19" ht="29.25" customHeight="1">
+      <c r="A25" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="116" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+    </row>
+    <row r="26" spans="1:19" ht="35.25" customHeight="1">
+      <c r="A26" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="115"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="115"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+    </row>
+    <row r="27" spans="1:19" ht="24" customHeight="1">
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="121" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="I28" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="122" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="I30" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="118"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
+    </row>
+    <row r="32" spans="1:19" ht="42">
+      <c r="A32" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="I32" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="120"/>
+      <c r="K32" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" s="120" t="s">
+        <v>227</v>
+      </c>
+      <c r="M32" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="N32" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="O32" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="P32" s="84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="30">
+      <c r="A33" s="120"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="L33" s="120"/>
+      <c r="M33" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="N33" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="O33" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="28">
+      <c r="A34" s="120"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="97">
+        <v>2016</v>
+      </c>
+      <c r="J34" s="97"/>
+      <c r="K34" s="98">
+        <f>MAX(K35:K46)</f>
+        <v>32</v>
+      </c>
+      <c r="L34" s="98">
+        <f>MAX(L35:L46)</f>
+        <v>40</v>
+      </c>
+      <c r="M34" s="98">
+        <f>SUM(M35:M46)*1000</f>
+        <v>10267964</v>
+      </c>
+      <c r="N34" s="98">
+        <f>SUM(N35:N46)*1000</f>
+        <v>180444745.00000003</v>
+      </c>
+      <c r="O34" s="98">
+        <f>SUM(O35:O46)*1000</f>
+        <v>445470692</v>
+      </c>
+      <c r="P34" s="98">
+        <f>SUM(P35:P46)*1000</f>
+        <v>42463236.000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="97">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="97"/>
+      <c r="C35" s="98">
+        <f>MAX(C36:C47)</f>
+        <v>48</v>
+      </c>
+      <c r="D35" s="98">
+        <f>MAX(D36:D47)</f>
+        <v>44</v>
+      </c>
+      <c r="E35" s="98">
+        <f>SUM(E36:E47)*1000</f>
+        <v>5714391.0000000009</v>
+      </c>
+      <c r="F35" s="98">
+        <f>SUM(F36:F47)*1000</f>
+        <v>98268017.000000015</v>
+      </c>
+      <c r="G35" s="98">
+        <f>SUM(G36:G47)*1000</f>
+        <v>475509660.99999994</v>
+      </c>
+      <c r="I35" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="J35" s="119"/>
+      <c r="K35" s="85">
+        <v>32</v>
+      </c>
+      <c r="L35" s="85">
+        <v>40</v>
+      </c>
+      <c r="M35" s="85">
+        <v>839.87599999999998</v>
+      </c>
+      <c r="N35" s="85">
+        <v>13925.906000000001</v>
+      </c>
+      <c r="O35" s="85">
+        <v>34347.637999999999</v>
+      </c>
+      <c r="P35" s="85">
+        <v>3243.78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="119"/>
+      <c r="C36" s="85">
+        <v>48</v>
+      </c>
+      <c r="D36" s="85">
+        <v>44</v>
+      </c>
+      <c r="E36" s="85">
+        <v>476.49200000000002</v>
+      </c>
+      <c r="F36" s="85">
+        <v>7758.3130000000001</v>
+      </c>
+      <c r="G36" s="85">
+        <v>36978.737000000001</v>
+      </c>
+      <c r="I36" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="119"/>
+      <c r="K36" s="85">
+        <v>32</v>
+      </c>
+      <c r="L36" s="85">
+        <v>40</v>
+      </c>
+      <c r="M36" s="85">
+        <v>812.904</v>
+      </c>
+      <c r="N36" s="85">
+        <v>14723.522999999999</v>
+      </c>
+      <c r="O36" s="85">
+        <v>36975.303</v>
+      </c>
+      <c r="P36" s="85">
+        <v>3148.2739999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="119"/>
+      <c r="C37" s="85">
+        <v>48</v>
+      </c>
+      <c r="D37" s="85">
+        <v>44</v>
+      </c>
+      <c r="E37" s="85">
+        <v>446.24799999999999</v>
+      </c>
+      <c r="F37" s="85">
+        <v>7813.2079999999996</v>
+      </c>
+      <c r="G37" s="85">
+        <v>37239.540999999997</v>
+      </c>
+      <c r="I37" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="J37" s="119"/>
+      <c r="K37" s="85">
+        <v>32</v>
+      </c>
+      <c r="L37" s="85">
+        <v>40</v>
+      </c>
+      <c r="M37" s="85">
+        <v>851.22500000000002</v>
+      </c>
+      <c r="N37" s="85">
+        <v>14536.004000000001</v>
+      </c>
+      <c r="O37" s="85">
+        <v>36382.83</v>
+      </c>
+      <c r="P37" s="85">
+        <v>3366.2179999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="119"/>
+      <c r="C38" s="85">
+        <v>48</v>
+      </c>
+      <c r="D38" s="85">
+        <v>44</v>
+      </c>
+      <c r="E38" s="85">
+        <v>461.54500000000002</v>
+      </c>
+      <c r="F38" s="85">
+        <v>7709.2110000000002</v>
+      </c>
+      <c r="G38" s="85">
+        <v>36746.699999999997</v>
+      </c>
+      <c r="I38" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="J38" s="119"/>
+      <c r="K38" s="85">
+        <v>32</v>
+      </c>
+      <c r="L38" s="85">
+        <v>40</v>
+      </c>
+      <c r="M38" s="85">
+        <v>841.87099999999998</v>
+      </c>
+      <c r="N38" s="85">
+        <v>15387.757</v>
+      </c>
+      <c r="O38" s="85">
+        <v>38383</v>
+      </c>
+      <c r="P38" s="85">
+        <v>3360.0039999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="119"/>
+      <c r="C39" s="85">
+        <v>48</v>
+      </c>
+      <c r="D39" s="85">
+        <v>44</v>
+      </c>
+      <c r="E39" s="85">
+        <v>468.46600000000001</v>
+      </c>
+      <c r="F39" s="85">
+        <v>8101.7759999999998</v>
+      </c>
+      <c r="G39" s="85">
+        <v>38619.072</v>
+      </c>
+      <c r="I39" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="119"/>
+      <c r="K39" s="85">
+        <v>32</v>
+      </c>
+      <c r="L39" s="85">
+        <v>40</v>
+      </c>
+      <c r="M39" s="85">
+        <v>886.94</v>
+      </c>
+      <c r="N39" s="85">
+        <v>15360.752</v>
+      </c>
+      <c r="O39" s="85">
+        <v>38366.663999999997</v>
+      </c>
+      <c r="P39" s="85">
+        <v>3618.4389999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="119"/>
+      <c r="C40" s="85">
+        <v>48</v>
+      </c>
+      <c r="D40" s="85">
+        <v>44</v>
+      </c>
+      <c r="E40" s="85">
+        <v>474.79199999999997</v>
+      </c>
+      <c r="F40" s="85">
+        <v>8256.7620000000006</v>
+      </c>
+      <c r="G40" s="85">
+        <v>39357.822999999997</v>
+      </c>
+      <c r="I40" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" s="119"/>
+      <c r="K40" s="85">
+        <v>32</v>
+      </c>
+      <c r="L40" s="85">
+        <v>40</v>
+      </c>
+      <c r="M40" s="85">
+        <v>853.56700000000001</v>
+      </c>
+      <c r="N40" s="85">
+        <v>14295.486999999999</v>
+      </c>
+      <c r="O40" s="85">
+        <v>37369.377</v>
+      </c>
+      <c r="P40" s="85">
+        <v>3740.5709999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="119"/>
+      <c r="C41" s="85">
+        <v>48</v>
+      </c>
+      <c r="D41" s="85">
+        <v>44</v>
+      </c>
+      <c r="E41" s="85">
+        <v>474.93799999999999</v>
+      </c>
+      <c r="F41" s="85">
+        <v>7852.9530000000004</v>
+      </c>
+      <c r="G41" s="85">
+        <v>37431.334000000003</v>
+      </c>
+      <c r="I41" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" s="119"/>
+      <c r="K41" s="85">
+        <v>32</v>
+      </c>
+      <c r="L41" s="85">
+        <v>40</v>
+      </c>
+      <c r="M41" s="85">
+        <v>855.06100000000004</v>
+      </c>
+      <c r="N41" s="85">
+        <v>14557.776</v>
+      </c>
+      <c r="O41" s="85">
+        <v>33382.5</v>
+      </c>
+      <c r="P41" s="85">
+        <v>3980.578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="119"/>
+      <c r="C42" s="85">
+        <v>48</v>
+      </c>
+      <c r="D42" s="85">
+        <v>38</v>
+      </c>
+      <c r="E42" s="85">
+        <v>478.67200000000003</v>
+      </c>
+      <c r="F42" s="85">
+        <v>7831.0649999999996</v>
+      </c>
+      <c r="G42" s="85">
+        <v>37326.470999999998</v>
+      </c>
+      <c r="I42" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="119"/>
+      <c r="K42" s="85">
+        <v>32</v>
+      </c>
+      <c r="L42" s="85">
+        <v>40</v>
+      </c>
+      <c r="M42" s="85">
+        <v>887.90099999999995</v>
+      </c>
+      <c r="N42" s="85">
+        <v>16182.244000000001</v>
+      </c>
+      <c r="O42" s="85">
+        <v>40139.449000000001</v>
+      </c>
+      <c r="P42" s="85">
+        <v>3941.569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="119"/>
+      <c r="C43" s="85">
+        <v>48</v>
+      </c>
+      <c r="D43" s="85">
+        <v>38</v>
+      </c>
+      <c r="E43" s="85">
+        <v>491.81299999999999</v>
+      </c>
+      <c r="F43" s="85">
+        <v>8447.5329999999994</v>
+      </c>
+      <c r="G43" s="85">
+        <v>40265.175999999999</v>
+      </c>
+      <c r="I43" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="J43" s="119"/>
+      <c r="K43" s="85">
+        <v>32</v>
+      </c>
+      <c r="L43" s="85">
+        <v>40</v>
+      </c>
+      <c r="M43" s="85">
+        <v>852.11</v>
+      </c>
+      <c r="N43" s="85">
+        <v>15470.380999999999</v>
+      </c>
+      <c r="O43" s="85">
+        <v>37092.027999999998</v>
+      </c>
+      <c r="P43" s="85">
+        <v>3739.1509999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="119"/>
+      <c r="C44" s="85">
+        <v>48</v>
+      </c>
+      <c r="D44" s="85">
+        <v>44</v>
+      </c>
+      <c r="E44" s="85">
+        <v>471.81900000000002</v>
+      </c>
+      <c r="F44" s="85">
+        <v>8315.5849999999991</v>
+      </c>
+      <c r="G44" s="85">
+        <v>39636.254000000001</v>
+      </c>
+      <c r="I44" s="119" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="119"/>
+      <c r="K44" s="85">
+        <v>32</v>
+      </c>
+      <c r="L44" s="85">
+        <v>40</v>
+      </c>
+      <c r="M44" s="85">
+        <v>873.70600000000002</v>
+      </c>
+      <c r="N44" s="85">
+        <v>15995.545</v>
+      </c>
+      <c r="O44" s="85">
+        <v>39659.572</v>
+      </c>
+      <c r="P44" s="85">
+        <v>3621.4549999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="119" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="119"/>
+      <c r="C45" s="85">
+        <v>48</v>
+      </c>
+      <c r="D45" s="85">
+        <v>38</v>
+      </c>
+      <c r="E45" s="85">
+        <v>510.54700000000003</v>
+      </c>
+      <c r="F45" s="85">
+        <v>8987.09</v>
+      </c>
+      <c r="G45" s="85">
+        <v>42836.974999999999</v>
+      </c>
+      <c r="I45" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="J45" s="119"/>
+      <c r="K45" s="85">
+        <v>32</v>
+      </c>
+      <c r="L45" s="85">
+        <v>40</v>
+      </c>
+      <c r="M45" s="85">
+        <v>839.72199999999998</v>
+      </c>
+      <c r="N45" s="85">
+        <v>15339.581</v>
+      </c>
+      <c r="O45" s="85">
+        <v>36999.857000000004</v>
+      </c>
+      <c r="P45" s="85">
+        <v>3324.4520000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="119"/>
+      <c r="C46" s="85">
+        <v>48</v>
+      </c>
+      <c r="D46" s="85">
+        <v>38</v>
+      </c>
+      <c r="E46" s="85">
+        <v>466.26900000000001</v>
+      </c>
+      <c r="F46" s="85">
+        <v>8638.5889999999999</v>
+      </c>
+      <c r="G46" s="85">
+        <v>44749.88</v>
+      </c>
+      <c r="I46" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="J46" s="119"/>
+      <c r="K46" s="85">
+        <v>32</v>
+      </c>
+      <c r="L46" s="85">
+        <v>40</v>
+      </c>
+      <c r="M46" s="85">
+        <v>873.08100000000002</v>
+      </c>
+      <c r="N46" s="85">
+        <v>14669.789000000001</v>
+      </c>
+      <c r="O46" s="85">
+        <v>36372.474000000002</v>
+      </c>
+      <c r="P46" s="85">
+        <v>3378.7449999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16">
+      <c r="A47" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="119"/>
+      <c r="C47" s="85">
+        <v>48</v>
+      </c>
+      <c r="D47" s="85">
+        <v>38</v>
+      </c>
+      <c r="E47" s="85">
+        <v>492.79</v>
+      </c>
+      <c r="F47" s="85">
+        <v>8555.9320000000007</v>
+      </c>
+      <c r="G47" s="85">
+        <v>44321.697999999997</v>
+      </c>
+      <c r="I47" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="J47" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="116"/>
+    </row>
+    <row r="48" spans="1:16" ht="18" customHeight="1">
+      <c r="A48" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="I48" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="J48" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" s="116"/>
+      <c r="L48" s="116"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="116"/>
+      <c r="O48" s="116"/>
+      <c r="P48" s="116"/>
+    </row>
+    <row r="49" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A49" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+    </row>
+    <row r="50" spans="1:16" ht="39.75" customHeight="1">
+      <c r="A50" s="118"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="I50" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" s="115"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
+    </row>
+    <row r="51" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A51" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="115"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="B54" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="51" customHeight="1">
+      <c r="B56" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="91" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="F56" s="93"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="B57" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="89">
+        <f>E7</f>
+        <v>42620362.229999989</v>
+      </c>
+      <c r="D57" s="95">
+        <f>D7</f>
+        <v>280</v>
+      </c>
+      <c r="E57" s="89">
+        <f>C57/D57</f>
+        <v>152215.57939285709</v>
+      </c>
+      <c r="F57" s="103">
+        <f t="shared" ref="F57:F61" si="0">E57/365</f>
+        <v>417.02898463796464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="B58" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58">
+        <f>M8</f>
+        <v>2105375</v>
+      </c>
+      <c r="D58" s="95">
+        <f>L8</f>
+        <v>20</v>
+      </c>
+      <c r="E58" s="89">
+        <f t="shared" ref="E58:E60" si="1">C58/D58</f>
+        <v>105268.75</v>
+      </c>
+      <c r="F58" s="103">
+        <f t="shared" si="0"/>
+        <v>288.40753424657532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="B59" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59">
+        <f>E35</f>
+        <v>5714391.0000000009</v>
+      </c>
+      <c r="D59" s="95">
+        <f>D35</f>
+        <v>44</v>
+      </c>
+      <c r="E59" s="89">
+        <f t="shared" si="1"/>
+        <v>129872.52272727275</v>
+      </c>
+      <c r="F59" s="103">
+        <f t="shared" si="0"/>
+        <v>355.81513075965137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="B60" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60">
+        <f>M34</f>
+        <v>10267964</v>
+      </c>
+      <c r="D60" s="95">
+        <f>L34</f>
+        <v>40</v>
+      </c>
+      <c r="E60" s="89">
+        <f t="shared" si="1"/>
+        <v>256699.1</v>
+      </c>
+      <c r="F60" s="103">
+        <f t="shared" si="0"/>
+        <v>703.28520547945209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="B61" s="117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="89">
+        <f>SUM(C57:C60)/SUM(D57:D60)</f>
+        <v>158093.99018229163</v>
+      </c>
+      <c r="F61" s="99">
+        <f t="shared" si="0"/>
+        <v>433.13421967751134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="B62" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="96">
+        <f>E61/1.6093</f>
+        <v>98237.737017517953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="C64" s="19">
+        <f>SUM(C57:C60)</f>
+        <v>60708092.229999989</v>
+      </c>
+      <c r="D64" s="19">
+        <f>SUM(D57:D60)</f>
+        <v>384</v>
+      </c>
+      <c r="E64">
+        <f>C64/D64</f>
+        <v>158093.99018229163</v>
+      </c>
+      <c r="F64" s="99">
+        <f t="shared" ref="F64" si="2">E64/365</f>
+        <v>433.13421967751134</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1"/>
+    <row r="73" ht="21.75" customHeight="1"/>
+    <row r="75" ht="36" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="95">
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I1:O2"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="I3:O4"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="A28:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="I28:P29"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B48:G48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -83146,23 +86143,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="36" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="16.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="36" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -83715,143 +86710,144 @@
         <v>6</v>
       </c>
       <c r="B5" s="10">
-        <v>0</v>
+        <f>'MX Rail Pssgr'!E62</f>
+        <v>98237.737017517953</v>
       </c>
       <c r="C5" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="I5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="O5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="P5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="Q5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="V5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="X5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="AC5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="AD5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="AE5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
       <c r="AJ5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98237.737017517953</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -84168,22 +87164,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="9" customWidth="1"/>
-    <col min="2" max="36" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="16.5" style="9" customWidth="1"/>
+    <col min="2" max="36" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
